--- a/TSHS_CaseCountData/DSHS New County Data.xlsx
+++ b/TSHS_CaseCountData/DSHS New County Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yipenggao/Documents/Amos_lab/covid-19-county-R0/TSHS_CaseCountData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF5F8FF-4451-FF41-9EFD-3994B7601424}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76012E1B-2338-CE4B-BF71-E8D0C40B2859}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="460" windowWidth="20360" windowHeight="15980" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
+    <workbookView xWindow="-19600" yWindow="-21920" windowWidth="51520" windowHeight="19420" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
   </bookViews>
   <sheets>
     <sheet name="County Dashboard" sheetId="1" r:id="rId1"/>
@@ -453,11 +453,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DE25F0-E558-784A-AF10-BC9084C29ADA}">
-  <dimension ref="A1:AD17"/>
+  <dimension ref="A1:AP17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C19" sqref="C19"/>
+      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AG21" sqref="AG21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -466,7 +466,7 @@
     <col min="2" max="17" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -557,8 +557,44 @@
       <c r="AD1" s="1">
         <v>44103</v>
       </c>
+      <c r="AE1" s="1">
+        <v>44104</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>44105</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>44106</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>44107</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>44108</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>44109</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>44110</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>44111</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>44112</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>44113</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>44114</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>44115</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -649,8 +685,44 @@
       <c r="AD2">
         <v>0</v>
       </c>
+      <c r="AE2">
+        <v>-2</v>
+      </c>
+      <c r="AF2">
+        <v>2</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>-1</v>
+      </c>
+      <c r="AI2">
+        <v>4</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
+        <v>-1</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -742,8 +814,44 @@
       <c r="AD3">
         <v>17</v>
       </c>
+      <c r="AE3">
+        <v>28</v>
+      </c>
+      <c r="AF3">
+        <v>45</v>
+      </c>
+      <c r="AG3">
+        <v>24</v>
+      </c>
+      <c r="AH3">
+        <v>30</v>
+      </c>
+      <c r="AI3">
+        <v>36</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>28</v>
+      </c>
+      <c r="AL3">
+        <v>55</v>
+      </c>
+      <c r="AM3">
+        <v>33</v>
+      </c>
+      <c r="AN3">
+        <v>12</v>
+      </c>
+      <c r="AO3">
+        <v>33</v>
+      </c>
+      <c r="AP3">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -834,8 +942,44 @@
       <c r="AD4">
         <v>0</v>
       </c>
+      <c r="AE4">
+        <v>33</v>
+      </c>
+      <c r="AF4">
+        <v>14</v>
+      </c>
+      <c r="AG4">
+        <v>15</v>
+      </c>
+      <c r="AH4">
+        <v>6</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>37</v>
+      </c>
+      <c r="AM4">
+        <v>5</v>
+      </c>
+      <c r="AN4">
+        <v>17</v>
+      </c>
+      <c r="AO4">
+        <v>11</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -926,8 +1070,44 @@
       <c r="AD5">
         <v>88</v>
       </c>
+      <c r="AE5">
+        <v>92</v>
+      </c>
+      <c r="AF5">
+        <v>85</v>
+      </c>
+      <c r="AG5">
+        <v>22</v>
+      </c>
+      <c r="AH5">
+        <v>78</v>
+      </c>
+      <c r="AI5">
+        <v>31</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>17</v>
+      </c>
+      <c r="AL5">
+        <v>22</v>
+      </c>
+      <c r="AM5">
+        <v>61</v>
+      </c>
+      <c r="AN5">
+        <v>9</v>
+      </c>
+      <c r="AO5">
+        <v>85</v>
+      </c>
+      <c r="AP5">
+        <v>83</v>
+      </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1018,8 +1198,44 @@
       <c r="AD6">
         <v>19</v>
       </c>
+      <c r="AE6">
+        <v>26</v>
+      </c>
+      <c r="AF6">
+        <v>24</v>
+      </c>
+      <c r="AG6">
+        <v>15</v>
+      </c>
+      <c r="AH6">
+        <v>22</v>
+      </c>
+      <c r="AI6">
+        <v>23</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>19</v>
+      </c>
+      <c r="AL6">
+        <v>24</v>
+      </c>
+      <c r="AM6">
+        <v>16</v>
+      </c>
+      <c r="AN6">
+        <v>24</v>
+      </c>
+      <c r="AO6">
+        <v>22</v>
+      </c>
+      <c r="AP6">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1111,8 +1327,44 @@
       <c r="AD7">
         <v>133</v>
       </c>
+      <c r="AE7">
+        <v>300</v>
+      </c>
+      <c r="AF7">
+        <v>141</v>
+      </c>
+      <c r="AG7">
+        <v>81</v>
+      </c>
+      <c r="AH7">
+        <v>266</v>
+      </c>
+      <c r="AI7">
+        <v>380</v>
+      </c>
+      <c r="AJ7">
+        <v>214</v>
+      </c>
+      <c r="AK7">
+        <v>171</v>
+      </c>
+      <c r="AL7">
+        <v>192</v>
+      </c>
+      <c r="AM7">
+        <v>191</v>
+      </c>
+      <c r="AN7">
+        <v>129</v>
+      </c>
+      <c r="AO7">
+        <v>248</v>
+      </c>
+      <c r="AP7">
+        <v>299</v>
+      </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1204,8 +1456,44 @@
       <c r="AD8">
         <v>4</v>
       </c>
+      <c r="AE8">
+        <v>-6</v>
+      </c>
+      <c r="AF8">
+        <v>-6</v>
+      </c>
+      <c r="AG8">
+        <v>-7</v>
+      </c>
+      <c r="AH8">
+        <v>-10</v>
+      </c>
+      <c r="AI8">
+        <v>9</v>
+      </c>
+      <c r="AJ8">
+        <v>21</v>
+      </c>
+      <c r="AK8">
+        <v>-2</v>
+      </c>
+      <c r="AL8">
+        <v>5</v>
+      </c>
+      <c r="AM8">
+        <v>8</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>-4</v>
+      </c>
+      <c r="AP8">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1297,8 +1585,44 @@
       <c r="AD9">
         <v>64</v>
       </c>
+      <c r="AE9">
+        <v>70</v>
+      </c>
+      <c r="AF9">
+        <v>72</v>
+      </c>
+      <c r="AG9">
+        <v>115</v>
+      </c>
+      <c r="AH9">
+        <v>72</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>105</v>
+      </c>
+      <c r="AL9">
+        <v>200</v>
+      </c>
+      <c r="AM9">
+        <v>161</v>
+      </c>
+      <c r="AN9">
+        <v>149</v>
+      </c>
+      <c r="AO9">
+        <v>77</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1389,129 +1713,201 @@
       <c r="AD10">
         <v>0</v>
       </c>
+      <c r="AE10">
+        <v>2</v>
+      </c>
+      <c r="AF10">
+        <v>11</v>
+      </c>
+      <c r="AG10">
+        <v>2</v>
+      </c>
+      <c r="AH10">
+        <v>2</v>
+      </c>
+      <c r="AI10">
+        <v>3</v>
+      </c>
+      <c r="AJ10">
+        <v>38</v>
+      </c>
+      <c r="AK10">
+        <v>4</v>
+      </c>
+      <c r="AL10">
+        <v>5</v>
+      </c>
+      <c r="AM10">
+        <v>3</v>
+      </c>
+      <c r="AN10">
+        <v>6</v>
+      </c>
+      <c r="AO10">
+        <v>-16</v>
+      </c>
+      <c r="AP10">
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <f>SUM(B2:B10)</f>
+        <f t="shared" ref="B11:AD11" si="0">SUM(B2:B10)</f>
         <v>1116</v>
       </c>
       <c r="C11">
-        <f>SUM(C2:C10)</f>
+        <f t="shared" si="0"/>
         <v>1200</v>
       </c>
       <c r="D11">
-        <f>SUM(D2:D10)</f>
+        <f t="shared" si="0"/>
         <v>803</v>
       </c>
       <c r="E11">
-        <f>SUM(E2:E10)</f>
+        <f t="shared" si="0"/>
         <v>1046</v>
       </c>
       <c r="F11">
-        <f>SUM(F2:F10)</f>
+        <f t="shared" si="0"/>
         <v>1237</v>
       </c>
       <c r="G11">
-        <f>SUM(G2:G10)</f>
+        <f t="shared" si="0"/>
         <v>1197</v>
       </c>
       <c r="H11">
-        <f>SUM(H2:H10)</f>
+        <f t="shared" si="0"/>
         <v>851</v>
       </c>
       <c r="I11">
-        <f>SUM(I2:I10)</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="J11">
-        <f>SUM(J2:J10)</f>
+        <f t="shared" si="0"/>
         <v>1008</v>
       </c>
       <c r="K11">
-        <f>SUM(K2:K10)</f>
+        <f t="shared" si="0"/>
         <v>1069</v>
       </c>
       <c r="L11">
-        <f>SUM(L2:L10)</f>
+        <f t="shared" si="0"/>
         <v>1154</v>
       </c>
       <c r="M11">
-        <f>SUM(M2:M10)</f>
+        <f t="shared" si="0"/>
         <v>1412</v>
       </c>
       <c r="N11">
-        <f>SUM(N2:N10)</f>
+        <f t="shared" si="0"/>
         <v>705</v>
       </c>
       <c r="O11">
-        <f>SUM(O2:O10)</f>
+        <f t="shared" si="0"/>
         <v>1032</v>
       </c>
       <c r="P11">
-        <f>SUM(P2:P10)</f>
+        <f t="shared" si="0"/>
         <v>1459</v>
       </c>
       <c r="Q11">
-        <f>SUM(Q2:Q10)</f>
+        <f t="shared" si="0"/>
         <v>585</v>
       </c>
       <c r="R11">
-        <f>SUM(R2:R10)</f>
+        <f t="shared" si="0"/>
         <v>626</v>
       </c>
       <c r="S11">
-        <f>SUM(S2:S10)</f>
+        <f t="shared" si="0"/>
         <v>785</v>
       </c>
       <c r="T11">
-        <f>SUM(T2:T10)</f>
+        <f t="shared" si="0"/>
         <v>589</v>
       </c>
       <c r="U11">
-        <f>SUM(U2:U10)</f>
+        <f t="shared" si="0"/>
         <v>791</v>
       </c>
       <c r="V11">
-        <f>SUM(V2:V10)</f>
+        <f t="shared" si="0"/>
         <v>689</v>
       </c>
       <c r="W11">
-        <f>SUM(W2:W10)</f>
+        <f t="shared" si="0"/>
         <v>568</v>
       </c>
       <c r="X11">
-        <f>SUM(X2:X10)</f>
+        <f t="shared" si="0"/>
         <v>357</v>
       </c>
       <c r="Y11">
-        <f>SUM(Y2:Y10)</f>
+        <f t="shared" si="0"/>
         <v>328</v>
       </c>
       <c r="Z11">
-        <f>SUM(Z2:Z10)</f>
+        <f t="shared" si="0"/>
         <v>366</v>
       </c>
       <c r="AA11">
-        <f>SUM(AA2:AA10)</f>
+        <f t="shared" si="0"/>
         <v>413</v>
       </c>
       <c r="AB11">
-        <f>SUM(AB2:AB10)</f>
+        <f t="shared" si="0"/>
         <v>229</v>
       </c>
       <c r="AC11">
-        <f>SUM(AC2:AC10)</f>
+        <f t="shared" si="0"/>
         <v>286</v>
       </c>
       <c r="AD11">
-        <f>SUM(AD2:AD10)</f>
+        <f t="shared" si="0"/>
         <v>325</v>
       </c>
+      <c r="AE11">
+        <v>543</v>
+      </c>
+      <c r="AF11">
+        <v>388</v>
+      </c>
+      <c r="AG11">
+        <v>267</v>
+      </c>
+      <c r="AH11">
+        <v>465</v>
+      </c>
+      <c r="AI11">
+        <v>486</v>
+      </c>
+      <c r="AJ11">
+        <v>273</v>
+      </c>
+      <c r="AK11">
+        <v>342</v>
+      </c>
+      <c r="AL11">
+        <v>541</v>
+      </c>
+      <c r="AM11">
+        <v>478</v>
+      </c>
+      <c r="AN11">
+        <v>347</v>
+      </c>
+      <c r="AO11">
+        <v>455</v>
+      </c>
+      <c r="AP11">
+        <v>445</v>
+      </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1519,7 +1915,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1555,8 +1951,44 @@
         <f>13+221</f>
         <v>234</v>
       </c>
+      <c r="AE15">
+        <v>316</v>
+      </c>
+      <c r="AF15">
+        <v>228</v>
+      </c>
+      <c r="AG15">
+        <v>771</v>
+      </c>
+      <c r="AH15">
+        <v>2458</v>
+      </c>
+      <c r="AI15">
+        <v>692</v>
+      </c>
+      <c r="AJ15">
+        <v>296</v>
+      </c>
+      <c r="AK15">
+        <v>256</v>
+      </c>
+      <c r="AL15">
+        <v>344</v>
+      </c>
+      <c r="AM15">
+        <v>436</v>
+      </c>
+      <c r="AN15">
+        <v>251</v>
+      </c>
+      <c r="AO15">
+        <v>158</v>
+      </c>
+      <c r="AP15">
+        <v>151</v>
+      </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1565,11 +1997,11 @@
         <v>14190</v>
       </c>
       <c r="X17">
-        <f t="shared" ref="X17:Y17" si="0">X15+X11</f>
+        <f t="shared" ref="X17:Y17" si="1">X15+X11</f>
         <v>742</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>766</v>
       </c>
       <c r="Z17">
@@ -1591,6 +2023,42 @@
       <c r="AD17">
         <f>AD15+AD11</f>
         <v>559</v>
+      </c>
+      <c r="AE17">
+        <v>859</v>
+      </c>
+      <c r="AF17">
+        <v>616</v>
+      </c>
+      <c r="AG17">
+        <v>1038</v>
+      </c>
+      <c r="AH17">
+        <v>2923</v>
+      </c>
+      <c r="AI17">
+        <v>1178</v>
+      </c>
+      <c r="AJ17">
+        <v>569</v>
+      </c>
+      <c r="AK17">
+        <v>598</v>
+      </c>
+      <c r="AL17">
+        <v>885</v>
+      </c>
+      <c r="AM17">
+        <v>914</v>
+      </c>
+      <c r="AN17">
+        <v>598</v>
+      </c>
+      <c r="AO17">
+        <v>613</v>
+      </c>
+      <c r="AP17">
+        <v>596</v>
       </c>
     </row>
   </sheetData>

--- a/TSHS_CaseCountData/DSHS New County Data.xlsx
+++ b/TSHS_CaseCountData/DSHS New County Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yipenggao/Documents/Amos_lab/covid-19-county-R0/TSHS_CaseCountData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76012E1B-2338-CE4B-BF71-E8D0C40B2859}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894839B1-D663-AB43-83C5-AB8C64525064}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19600" yWindow="-21920" windowWidth="51520" windowHeight="19420" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
+    <workbookView xWindow="-16040" yWindow="-24000" windowWidth="52160" windowHeight="22560" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
   </bookViews>
   <sheets>
     <sheet name="County Dashboard" sheetId="1" r:id="rId1"/>
@@ -115,12 +115,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -135,10 +141,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,11 +460,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DE25F0-E558-784A-AF10-BC9084C29ADA}">
-  <dimension ref="A1:AP17"/>
+  <dimension ref="A1:AX17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
       <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AG21" sqref="AG21"/>
+      <selection pane="topRight" activeCell="AS14" sqref="AS14:AS15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -466,7 +473,7 @@
     <col min="2" max="17" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -593,8 +600,32 @@
       <c r="AP1" s="1">
         <v>44115</v>
       </c>
+      <c r="AQ1" s="1">
+        <v>44116</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>44117</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>44118</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>44119</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>44120</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>44121</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>44122</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>44123</v>
+      </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -721,8 +752,32 @@
       <c r="AP2">
         <v>0</v>
       </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+      <c r="AR2">
+        <v>-1</v>
+      </c>
+      <c r="AS2">
+        <v>1</v>
+      </c>
+      <c r="AT2">
+        <v>2</v>
+      </c>
+      <c r="AU2">
+        <v>1</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -850,8 +905,32 @@
       <c r="AP3">
         <v>26</v>
       </c>
+      <c r="AQ3">
+        <v>29</v>
+      </c>
+      <c r="AR3" s="3">
+        <v>10</v>
+      </c>
+      <c r="AS3">
+        <v>46</v>
+      </c>
+      <c r="AT3">
+        <v>48</v>
+      </c>
+      <c r="AU3">
+        <v>22</v>
+      </c>
+      <c r="AV3">
+        <v>37</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>54</v>
+      </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -978,8 +1057,32 @@
       <c r="AP4">
         <v>0</v>
       </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>25</v>
+      </c>
+      <c r="AT4">
+        <v>9</v>
+      </c>
+      <c r="AU4">
+        <v>16</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1106,8 +1209,32 @@
       <c r="AP5">
         <v>83</v>
       </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>32</v>
+      </c>
+      <c r="AS5">
+        <v>54</v>
+      </c>
+      <c r="AT5">
+        <v>53</v>
+      </c>
+      <c r="AU5">
+        <v>19</v>
+      </c>
+      <c r="AV5">
+        <v>24</v>
+      </c>
+      <c r="AW5">
+        <v>64</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1234,8 +1361,32 @@
       <c r="AP6">
         <v>29</v>
       </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>24</v>
+      </c>
+      <c r="AS6">
+        <v>23</v>
+      </c>
+      <c r="AT6">
+        <v>25</v>
+      </c>
+      <c r="AU6">
+        <v>9</v>
+      </c>
+      <c r="AV6">
+        <v>30</v>
+      </c>
+      <c r="AW6">
+        <v>37</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1363,8 +1514,32 @@
       <c r="AP7">
         <v>299</v>
       </c>
+      <c r="AQ7">
+        <v>420</v>
+      </c>
+      <c r="AR7">
+        <v>223</v>
+      </c>
+      <c r="AS7">
+        <v>167</v>
+      </c>
+      <c r="AT7">
+        <v>646</v>
+      </c>
+      <c r="AU7">
+        <v>211</v>
+      </c>
+      <c r="AV7">
+        <v>318</v>
+      </c>
+      <c r="AW7">
+        <v>229</v>
+      </c>
+      <c r="AX7">
+        <v>219</v>
+      </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1492,8 +1667,32 @@
       <c r="AP8">
         <v>5</v>
       </c>
+      <c r="AQ8">
+        <v>3</v>
+      </c>
+      <c r="AR8">
+        <v>1</v>
+      </c>
+      <c r="AS8">
+        <v>-4</v>
+      </c>
+      <c r="AT8">
+        <v>-3</v>
+      </c>
+      <c r="AU8">
+        <v>9</v>
+      </c>
+      <c r="AV8">
+        <v>-16</v>
+      </c>
+      <c r="AW8">
+        <v>4</v>
+      </c>
+      <c r="AX8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1621,8 +1820,32 @@
       <c r="AP9">
         <v>0</v>
       </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>223</v>
+      </c>
+      <c r="AS9">
+        <v>115</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>205</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>61</v>
+      </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1749,8 +1972,32 @@
       <c r="AP10">
         <v>3</v>
       </c>
+      <c r="AQ10">
+        <v>16</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>2</v>
+      </c>
+      <c r="AT10">
+        <v>4</v>
+      </c>
+      <c r="AU10">
+        <v>2</v>
+      </c>
+      <c r="AV10">
+        <v>2</v>
+      </c>
+      <c r="AW10">
+        <v>3</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1907,7 +2154,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1915,7 +2162,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>

--- a/TSHS_CaseCountData/DSHS New County Data.xlsx
+++ b/TSHS_CaseCountData/DSHS New County Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yipenggao/Documents/Amos_lab/covid-19-county-R0/TSHS_CaseCountData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894839B1-D663-AB43-83C5-AB8C64525064}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B57AD5-7A51-5B4E-97A8-F2459C759727}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16040" yWindow="-24000" windowWidth="52160" windowHeight="22560" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
+    <workbookView xWindow="-12360" yWindow="-24820" windowWidth="52160" windowHeight="22560" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
   </bookViews>
   <sheets>
     <sheet name="County Dashboard" sheetId="1" r:id="rId1"/>
@@ -460,11 +460,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DE25F0-E558-784A-AF10-BC9084C29ADA}">
-  <dimension ref="A1:AX17"/>
+  <dimension ref="A1:BD17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AS14" sqref="AS14:AS15"/>
+      <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BB22" sqref="BB22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -473,7 +473,7 @@
     <col min="2" max="17" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -624,8 +624,26 @@
       <c r="AX1" s="1">
         <v>44123</v>
       </c>
+      <c r="AY1" s="1">
+        <v>44124</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>44125</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>44126</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>44127</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>44128</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>44129</v>
+      </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -776,8 +794,26 @@
       <c r="AX2">
         <v>0</v>
       </c>
+      <c r="AY2">
+        <v>1</v>
+      </c>
+      <c r="AZ2">
+        <v>1</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>1</v>
+      </c>
+      <c r="BC2">
+        <v>3</v>
+      </c>
+      <c r="BD2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -929,8 +965,26 @@
       <c r="AX3">
         <v>54</v>
       </c>
+      <c r="AY3">
+        <v>19</v>
+      </c>
+      <c r="AZ3">
+        <v>33</v>
+      </c>
+      <c r="BA3">
+        <v>45</v>
+      </c>
+      <c r="BB3">
+        <v>36</v>
+      </c>
+      <c r="BC3">
+        <v>50</v>
+      </c>
+      <c r="BD3">
+        <v>52</v>
+      </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1081,8 +1135,26 @@
       <c r="AX4">
         <v>0</v>
       </c>
+      <c r="AY4">
+        <v>24</v>
+      </c>
+      <c r="AZ4">
+        <v>3</v>
+      </c>
+      <c r="BA4">
+        <v>12</v>
+      </c>
+      <c r="BB4">
+        <v>6</v>
+      </c>
+      <c r="BC4">
+        <v>3</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1233,8 +1305,26 @@
       <c r="AX5">
         <v>0</v>
       </c>
+      <c r="AY5">
+        <v>31</v>
+      </c>
+      <c r="AZ5">
+        <v>81</v>
+      </c>
+      <c r="BA5">
+        <v>113</v>
+      </c>
+      <c r="BB5">
+        <v>11</v>
+      </c>
+      <c r="BC5">
+        <v>30</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1385,8 +1475,26 @@
       <c r="AX6">
         <v>0</v>
       </c>
+      <c r="AY6">
+        <v>28</v>
+      </c>
+      <c r="AZ6">
+        <v>49</v>
+      </c>
+      <c r="BA6">
+        <v>41</v>
+      </c>
+      <c r="BB6">
+        <v>39</v>
+      </c>
+      <c r="BC6">
+        <v>31</v>
+      </c>
+      <c r="BD6">
+        <v>70</v>
+      </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1538,8 +1646,26 @@
       <c r="AX7">
         <v>219</v>
       </c>
+      <c r="AY7">
+        <v>300</v>
+      </c>
+      <c r="AZ7">
+        <v>223</v>
+      </c>
+      <c r="BA7">
+        <v>637</v>
+      </c>
+      <c r="BB7">
+        <v>280</v>
+      </c>
+      <c r="BC7">
+        <v>357</v>
+      </c>
+      <c r="BD7">
+        <v>732</v>
+      </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1691,8 +1817,26 @@
       <c r="AX8">
         <v>2</v>
       </c>
+      <c r="AY8">
+        <v>3</v>
+      </c>
+      <c r="AZ8">
+        <v>-6</v>
+      </c>
+      <c r="BA8">
+        <v>6</v>
+      </c>
+      <c r="BB8">
+        <v>4</v>
+      </c>
+      <c r="BC8">
+        <v>7</v>
+      </c>
+      <c r="BD8">
+        <v>8</v>
+      </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1844,8 +1988,26 @@
       <c r="AX9">
         <v>61</v>
       </c>
+      <c r="AY9">
+        <v>82</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>400</v>
+      </c>
+      <c r="BC9">
+        <v>110</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1996,8 +2158,26 @@
       <c r="AX10">
         <v>0</v>
       </c>
+      <c r="AY10">
+        <v>3</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>1</v>
+      </c>
+      <c r="BB10">
+        <v>1</v>
+      </c>
+      <c r="BC10">
+        <v>6</v>
+      </c>
+      <c r="BD10">
+        <v>12</v>
+      </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2154,7 +2334,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2162,7 +2342,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>

--- a/TSHS_CaseCountData/DSHS New County Data.xlsx
+++ b/TSHS_CaseCountData/DSHS New County Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yipenggao/Documents/Amos_lab/covid-19-county-R0/TSHS_CaseCountData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B57AD5-7A51-5B4E-97A8-F2459C759727}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04BE80C-E886-484F-8F45-625A5FF8FA2C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-12360" yWindow="-24820" windowWidth="52160" windowHeight="22560" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
   </bookViews>
@@ -460,11 +460,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DE25F0-E558-784A-AF10-BC9084C29ADA}">
-  <dimension ref="A1:BD17"/>
+  <dimension ref="A1:BF17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BB22" sqref="BB22"/>
+      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BG13" sqref="BF13:BG13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -473,7 +473,7 @@
     <col min="2" max="17" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -642,8 +642,14 @@
       <c r="BD1" s="1">
         <v>44129</v>
       </c>
+      <c r="BE1" s="1">
+        <v>44130</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>44131</v>
+      </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -812,8 +818,14 @@
       <c r="BD2">
         <v>1</v>
       </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -983,8 +995,14 @@
       <c r="BD3">
         <v>52</v>
       </c>
+      <c r="BE3">
+        <v>28</v>
+      </c>
+      <c r="BF3">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1153,8 +1171,14 @@
       <c r="BD4">
         <v>0</v>
       </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1323,8 +1347,14 @@
       <c r="BD5">
         <v>0</v>
       </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>94</v>
+      </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1493,8 +1523,14 @@
       <c r="BD6">
         <v>70</v>
       </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1664,8 +1700,14 @@
       <c r="BD7">
         <v>732</v>
       </c>
+      <c r="BE7">
+        <v>276</v>
+      </c>
+      <c r="BF7">
+        <v>385</v>
+      </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1835,8 +1877,14 @@
       <c r="BD8">
         <v>8</v>
       </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>17</v>
+      </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2006,8 +2054,14 @@
       <c r="BD9">
         <v>0</v>
       </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>130</v>
+      </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2176,8 +2230,14 @@
       <c r="BD10">
         <v>12</v>
       </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>12</v>
+      </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2334,7 +2394,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2342,7 +2402,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>

--- a/TSHS_CaseCountData/DSHS New County Data.xlsx
+++ b/TSHS_CaseCountData/DSHS New County Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yipenggao/Documents/Amos_lab/covid-19-county-R0/TSHS_CaseCountData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04BE80C-E886-484F-8F45-625A5FF8FA2C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D834167A-A7BF-5A42-8CD3-A860F67D960B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12360" yWindow="-24820" windowWidth="52160" windowHeight="22560" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
+    <workbookView xWindow="-18760" yWindow="-24140" windowWidth="52160" windowHeight="22560" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
   </bookViews>
   <sheets>
     <sheet name="County Dashboard" sheetId="1" r:id="rId1"/>
@@ -460,11 +460,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DE25F0-E558-784A-AF10-BC9084C29ADA}">
-  <dimension ref="A1:BF17"/>
+  <dimension ref="A1:BG17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BG13" sqref="BF13:BG13"/>
+      <selection pane="topRight" activeCell="BG17" sqref="BG17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -473,7 +473,7 @@
     <col min="2" max="17" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -648,8 +648,11 @@
       <c r="BF1" s="1">
         <v>44131</v>
       </c>
+      <c r="BG1" s="1">
+        <v>44132</v>
+      </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -824,8 +827,11 @@
       <c r="BF2">
         <v>0</v>
       </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1001,8 +1007,11 @@
       <c r="BF3">
         <v>24</v>
       </c>
+      <c r="BG3">
+        <v>38</v>
+      </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1177,8 +1186,11 @@
       <c r="BF4">
         <v>11</v>
       </c>
+      <c r="BG4">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1353,8 +1365,11 @@
       <c r="BF5">
         <v>94</v>
       </c>
+      <c r="BG5">
+        <v>70</v>
+      </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1529,8 +1544,11 @@
       <c r="BF6">
         <v>35</v>
       </c>
+      <c r="BG6">
+        <v>53</v>
+      </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1706,8 +1724,11 @@
       <c r="BF7">
         <v>385</v>
       </c>
+      <c r="BG7">
+        <v>170</v>
+      </c>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1883,8 +1904,11 @@
       <c r="BF8">
         <v>17</v>
       </c>
+      <c r="BG8">
+        <v>-13</v>
+      </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2060,8 +2084,11 @@
       <c r="BF9">
         <v>130</v>
       </c>
+      <c r="BG9">
+        <v>94</v>
+      </c>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2236,8 +2263,11 @@
       <c r="BF10">
         <v>12</v>
       </c>
+      <c r="BG10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2394,7 +2424,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2402,7 +2432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>

--- a/TSHS_CaseCountData/DSHS New County Data.xlsx
+++ b/TSHS_CaseCountData/DSHS New County Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yipenggao/Documents/Amos_lab/covid-19-county-R0/TSHS_CaseCountData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D834167A-A7BF-5A42-8CD3-A860F67D960B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4776DD43-6E4E-D44E-AA3D-BC91465C8E1D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-18760" yWindow="-24140" windowWidth="52160" windowHeight="22560" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
   </bookViews>
@@ -460,11 +460,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DE25F0-E558-784A-AF10-BC9084C29ADA}">
-  <dimension ref="A1:BG17"/>
+  <dimension ref="A1:BH17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BG17" sqref="BG17"/>
+      <selection pane="topRight" activeCell="BI19" sqref="BI19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -473,7 +473,7 @@
     <col min="2" max="17" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -651,8 +651,11 @@
       <c r="BG1" s="1">
         <v>44132</v>
       </c>
+      <c r="BH1" s="1">
+        <v>44133</v>
+      </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -830,8 +833,11 @@
       <c r="BG2">
         <v>0</v>
       </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1010,8 +1016,11 @@
       <c r="BG3">
         <v>38</v>
       </c>
+      <c r="BH3">
+        <v>54</v>
+      </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1189,8 +1198,11 @@
       <c r="BG4">
         <v>9</v>
       </c>
+      <c r="BH4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1368,8 +1380,11 @@
       <c r="BG5">
         <v>70</v>
       </c>
+      <c r="BH5">
+        <v>29</v>
+      </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1547,8 +1562,11 @@
       <c r="BG6">
         <v>53</v>
       </c>
+      <c r="BH6">
+        <v>43</v>
+      </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1727,8 +1745,11 @@
       <c r="BG7">
         <v>170</v>
       </c>
+      <c r="BH7">
+        <v>741</v>
+      </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1907,8 +1928,11 @@
       <c r="BG8">
         <v>-13</v>
       </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2087,8 +2111,11 @@
       <c r="BG9">
         <v>94</v>
       </c>
+      <c r="BH9">
+        <v>89</v>
+      </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2266,8 +2293,11 @@
       <c r="BG10">
         <v>1</v>
       </c>
+      <c r="BH10">
+        <v>20</v>
+      </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2424,7 +2454,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2432,7 +2462,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>

--- a/TSHS_CaseCountData/DSHS New County Data.xlsx
+++ b/TSHS_CaseCountData/DSHS New County Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yipenggao/Documents/Amos_lab/covid-19-county-R0/TSHS_CaseCountData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4776DD43-6E4E-D44E-AA3D-BC91465C8E1D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DD6E45-5043-0240-BC30-CAE1ED48ECB6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18760" yWindow="-24140" windowWidth="52160" windowHeight="22560" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
+    <workbookView xWindow="660" yWindow="980" windowWidth="28800" windowHeight="16620" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
   </bookViews>
   <sheets>
     <sheet name="County Dashboard" sheetId="1" r:id="rId1"/>
@@ -460,11 +460,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DE25F0-E558-784A-AF10-BC9084C29ADA}">
-  <dimension ref="A1:BH17"/>
+  <dimension ref="A1:BK17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BI19" sqref="BI19"/>
+      <pane xSplit="1" topLeftCell="BB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BM4" sqref="BM4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -473,7 +473,7 @@
     <col min="2" max="17" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:63" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -654,8 +654,17 @@
       <c r="BH1" s="1">
         <v>44133</v>
       </c>
+      <c r="BI1" s="1">
+        <v>44134</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>44135</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>44136</v>
+      </c>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -836,8 +845,17 @@
       <c r="BH2">
         <v>0</v>
       </c>
+      <c r="BI2">
+        <v>2</v>
+      </c>
+      <c r="BJ2">
+        <v>1</v>
+      </c>
+      <c r="BK2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1019,8 +1037,17 @@
       <c r="BH3">
         <v>54</v>
       </c>
+      <c r="BI3">
+        <v>49</v>
+      </c>
+      <c r="BJ3">
+        <v>65</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1201,8 +1228,17 @@
       <c r="BH4">
         <v>6</v>
       </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>14</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1383,8 +1419,17 @@
       <c r="BH5">
         <v>29</v>
       </c>
+      <c r="BI5">
+        <v>49</v>
+      </c>
+      <c r="BJ5">
+        <v>42</v>
+      </c>
+      <c r="BK5">
+        <v>59</v>
+      </c>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1565,8 +1610,17 @@
       <c r="BH6">
         <v>43</v>
       </c>
+      <c r="BI6">
+        <v>72</v>
+      </c>
+      <c r="BJ6">
+        <v>54</v>
+      </c>
+      <c r="BK6">
+        <v>40</v>
+      </c>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1748,8 +1802,17 @@
       <c r="BH7">
         <v>741</v>
       </c>
+      <c r="BI7">
+        <v>303</v>
+      </c>
+      <c r="BJ7">
+        <v>518</v>
+      </c>
+      <c r="BK7">
+        <v>629</v>
+      </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1931,8 +1994,17 @@
       <c r="BH8">
         <v>0</v>
       </c>
+      <c r="BI8">
+        <v>7</v>
+      </c>
+      <c r="BJ8">
+        <v>3</v>
+      </c>
+      <c r="BK8">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2114,8 +2186,17 @@
       <c r="BH9">
         <v>89</v>
       </c>
+      <c r="BI9">
+        <v>112</v>
+      </c>
+      <c r="BJ9">
+        <v>50</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2296,8 +2377,17 @@
       <c r="BH10">
         <v>20</v>
       </c>
+      <c r="BI10">
+        <v>1</v>
+      </c>
+      <c r="BJ10">
+        <v>3</v>
+      </c>
+      <c r="BK10">
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2454,7 +2544,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2462,7 +2552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>

--- a/TSHS_CaseCountData/DSHS New County Data.xlsx
+++ b/TSHS_CaseCountData/DSHS New County Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yipenggao/Documents/Amos_lab/covid-19-county-R0/TSHS_CaseCountData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DD6E45-5043-0240-BC30-CAE1ED48ECB6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4592BAB6-32A5-D64F-BA81-B8358C913057}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="980" windowWidth="28800" windowHeight="16620" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
   </bookViews>
   <sheets>
     <sheet name="County Dashboard" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -109,6 +109,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -141,11 +148,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DE25F0-E558-784A-AF10-BC9084C29ADA}">
-  <dimension ref="A1:BK17"/>
+  <dimension ref="A1:BL17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BB1" activePane="topRight" state="frozen"/>
@@ -473,7 +481,7 @@
     <col min="2" max="17" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -663,8 +671,11 @@
       <c r="BK1" s="1">
         <v>44136</v>
       </c>
+      <c r="BL1" s="1">
+        <v>44137</v>
+      </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -854,8 +865,11 @@
       <c r="BK2">
         <v>4</v>
       </c>
+      <c r="BL2" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1046,8 +1060,11 @@
       <c r="BK3">
         <v>0</v>
       </c>
+      <c r="BL3" s="4">
+        <v>186</v>
+      </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1237,8 +1254,11 @@
       <c r="BK4">
         <v>0</v>
       </c>
+      <c r="BL4" s="4">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1428,8 +1448,11 @@
       <c r="BK5">
         <v>59</v>
       </c>
+      <c r="BL5" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1619,8 +1642,11 @@
       <c r="BK6">
         <v>40</v>
       </c>
+      <c r="BL6" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1811,8 +1837,11 @@
       <c r="BK7">
         <v>629</v>
       </c>
+      <c r="BL7" s="4">
+        <v>365</v>
+      </c>
     </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2003,8 +2032,11 @@
       <c r="BK8">
         <v>7</v>
       </c>
+      <c r="BL8" s="4">
+        <v>4</v>
+      </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2195,8 +2227,11 @@
       <c r="BK9">
         <v>0</v>
       </c>
+      <c r="BL9" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2386,8 +2421,11 @@
       <c r="BK10">
         <v>4</v>
       </c>
+      <c r="BL10" s="4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2544,7 +2582,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2552,7 +2590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>

--- a/TSHS_CaseCountData/DSHS New County Data.xlsx
+++ b/TSHS_CaseCountData/DSHS New County Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yipenggao/Documents/Amos_lab/covid-19-county-R0/TSHS_CaseCountData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4592BAB6-32A5-D64F-BA81-B8358C913057}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0858752C-2A88-5642-8245-705FFBACD553}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
   </bookViews>
@@ -468,11 +468,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DE25F0-E558-784A-AF10-BC9084C29ADA}">
-  <dimension ref="A1:BL17"/>
+  <dimension ref="A1:BM17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BM4" sqref="BM4"/>
+      <selection pane="topRight" activeCell="BN3" sqref="BN3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -481,7 +481,7 @@
     <col min="2" max="17" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -674,8 +674,11 @@
       <c r="BL1" s="1">
         <v>44137</v>
       </c>
+      <c r="BM1" s="1">
+        <v>44138</v>
+      </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -868,8 +871,11 @@
       <c r="BL2" s="4">
         <v>2</v>
       </c>
+      <c r="BM2" s="4">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1063,8 +1069,11 @@
       <c r="BL3" s="4">
         <v>186</v>
       </c>
+      <c r="BM3" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1257,8 +1266,11 @@
       <c r="BL4" s="4">
         <v>7</v>
       </c>
+      <c r="BM4" s="4">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1451,8 +1463,11 @@
       <c r="BL5" s="4">
         <v>0</v>
       </c>
+      <c r="BM5" s="4">
+        <v>28</v>
+      </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1645,8 +1660,11 @@
       <c r="BL6" s="4">
         <v>0</v>
       </c>
+      <c r="BM6" s="4">
+        <v>84</v>
+      </c>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1840,8 +1858,11 @@
       <c r="BL7" s="4">
         <v>365</v>
       </c>
+      <c r="BM7" s="4">
+        <v>409</v>
+      </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2035,8 +2056,11 @@
       <c r="BL8" s="4">
         <v>4</v>
       </c>
+      <c r="BM8" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2230,8 +2254,11 @@
       <c r="BL9" s="4">
         <v>0</v>
       </c>
+      <c r="BM9" s="4">
+        <v>83</v>
+      </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2424,8 +2451,11 @@
       <c r="BL10" s="4">
         <v>3</v>
       </c>
+      <c r="BM10" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2582,7 +2612,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2590,7 +2620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>

--- a/TSHS_CaseCountData/DSHS New County Data.xlsx
+++ b/TSHS_CaseCountData/DSHS New County Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yipenggao/Documents/Amos_lab/covid-19-county-R0/TSHS_CaseCountData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0858752C-2A88-5642-8245-705FFBACD553}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEFF949-F1DD-174A-8F84-884836C21F74}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
   </bookViews>
@@ -468,11 +468,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DE25F0-E558-784A-AF10-BC9084C29ADA}">
-  <dimension ref="A1:BM17"/>
+  <dimension ref="A1:BN17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BN3" sqref="BN3"/>
+      <selection pane="topRight" activeCell="BN13" sqref="BN13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -481,7 +481,7 @@
     <col min="2" max="17" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -677,8 +677,11 @@
       <c r="BM1" s="1">
         <v>44138</v>
       </c>
+      <c r="BN1" s="1">
+        <v>44139</v>
+      </c>
     </row>
-    <row r="2" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -874,8 +877,11 @@
       <c r="BM2" s="4">
         <v>-1</v>
       </c>
+      <c r="BN2" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1072,8 +1078,11 @@
       <c r="BM3" s="4">
         <v>0</v>
       </c>
+      <c r="BN3" s="4">
+        <v>31</v>
+      </c>
     </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1269,8 +1278,11 @@
       <c r="BM4" s="4">
         <v>12</v>
       </c>
+      <c r="BN4" s="4">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1466,8 +1478,11 @@
       <c r="BM5" s="4">
         <v>28</v>
       </c>
+      <c r="BN5" s="4">
+        <v>44</v>
+      </c>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1663,8 +1678,11 @@
       <c r="BM6" s="4">
         <v>84</v>
       </c>
+      <c r="BN6" s="4">
+        <v>69</v>
+      </c>
     </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1861,8 +1879,11 @@
       <c r="BM7" s="4">
         <v>409</v>
       </c>
+      <c r="BN7" s="4">
+        <v>447</v>
+      </c>
     </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2059,8 +2080,11 @@
       <c r="BM8" s="4">
         <v>0</v>
       </c>
+      <c r="BN8" s="4">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2257,8 +2281,11 @@
       <c r="BM9" s="4">
         <v>83</v>
       </c>
+      <c r="BN9" s="4">
+        <v>56</v>
+      </c>
     </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2454,8 +2481,11 @@
       <c r="BM10" s="4">
         <v>0</v>
       </c>
+      <c r="BN10" s="4">
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2612,7 +2642,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2620,7 +2650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>

--- a/TSHS_CaseCountData/DSHS New County Data.xlsx
+++ b/TSHS_CaseCountData/DSHS New County Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yipenggao/Documents/Amos_lab/covid-19-county-R0/TSHS_CaseCountData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEFF949-F1DD-174A-8F84-884836C21F74}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7418C2A4-E0D8-3445-B930-575336EBF858}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
   </bookViews>
@@ -468,11 +468,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DE25F0-E558-784A-AF10-BC9084C29ADA}">
-  <dimension ref="A1:BN17"/>
+  <dimension ref="A1:DL17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BN13" sqref="BN13"/>
+      <pane xSplit="1" topLeftCell="BO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DA24" sqref="DA24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -481,7 +481,7 @@
     <col min="2" max="17" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:116" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -680,8 +680,158 @@
       <c r="BN1" s="1">
         <v>44139</v>
       </c>
+      <c r="BO1" s="1">
+        <v>44140</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>44141</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>44142</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>44143</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>44144</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>44145</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>44146</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>44147</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>44148</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>44149</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>44150</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>44151</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>44152</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>44153</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>44154</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>44155</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>44156</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>44157</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>44158</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>44159</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>44160</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>44161</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>44162</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>44163</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>44164</v>
+      </c>
+      <c r="CN1" s="1">
+        <v>44165</v>
+      </c>
+      <c r="CO1" s="1">
+        <v>44166</v>
+      </c>
+      <c r="CP1" s="1">
+        <v>44167</v>
+      </c>
+      <c r="CQ1" s="1">
+        <v>44168</v>
+      </c>
+      <c r="CR1" s="1">
+        <v>44169</v>
+      </c>
+      <c r="CS1" s="1">
+        <v>44170</v>
+      </c>
+      <c r="CT1" s="1">
+        <v>44171</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>44172</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>44173</v>
+      </c>
+      <c r="CW1" s="1">
+        <v>44174</v>
+      </c>
+      <c r="CX1" s="1">
+        <v>44175</v>
+      </c>
+      <c r="CY1" s="1">
+        <v>44176</v>
+      </c>
+      <c r="CZ1" s="1">
+        <v>44177</v>
+      </c>
+      <c r="DA1" s="1">
+        <v>44178</v>
+      </c>
+      <c r="DB1" s="1">
+        <v>44179</v>
+      </c>
+      <c r="DC1" s="1">
+        <v>44180</v>
+      </c>
+      <c r="DD1" s="1">
+        <v>44181</v>
+      </c>
+      <c r="DE1" s="1">
+        <v>44182</v>
+      </c>
+      <c r="DF1" s="1">
+        <v>44183</v>
+      </c>
+      <c r="DG1" s="1">
+        <v>44184</v>
+      </c>
+      <c r="DH1" s="1">
+        <v>44185</v>
+      </c>
+      <c r="DI1" s="1">
+        <v>44186</v>
+      </c>
+      <c r="DJ1" s="1">
+        <v>44187</v>
+      </c>
+      <c r="DK1" s="1">
+        <v>44188</v>
+      </c>
+      <c r="DL1" s="1">
+        <v>44189</v>
+      </c>
     </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -880,8 +1030,158 @@
       <c r="BN2" s="4">
         <v>1</v>
       </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>1</v>
+      </c>
+      <c r="BR2">
+        <v>1</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>9</v>
+      </c>
+      <c r="BU2">
+        <v>-1</v>
+      </c>
+      <c r="BV2">
+        <v>5</v>
+      </c>
+      <c r="BW2">
+        <v>1</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>5</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>2</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>6</v>
+      </c>
+      <c r="CD2">
+        <v>2</v>
+      </c>
+      <c r="CE2">
+        <v>4</v>
+      </c>
+      <c r="CF2">
+        <v>4</v>
+      </c>
+      <c r="CG2">
+        <v>9</v>
+      </c>
+      <c r="CH2">
+        <v>8</v>
+      </c>
+      <c r="CI2">
+        <v>11</v>
+      </c>
+      <c r="CJ2">
+        <v>2</v>
+      </c>
+      <c r="CK2">
+        <v>7</v>
+      </c>
+      <c r="CL2">
+        <v>4</v>
+      </c>
+      <c r="CM2">
+        <v>10</v>
+      </c>
+      <c r="CN2">
+        <v>15</v>
+      </c>
+      <c r="CO2">
+        <v>10</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>14</v>
+      </c>
+      <c r="CR2">
+        <v>5</v>
+      </c>
+      <c r="CS2">
+        <v>5</v>
+      </c>
+      <c r="CT2">
+        <v>14</v>
+      </c>
+      <c r="CU2">
+        <v>8</v>
+      </c>
+      <c r="CV2">
+        <v>12</v>
+      </c>
+      <c r="CW2">
+        <v>-2</v>
+      </c>
+      <c r="CX2">
+        <v>-3</v>
+      </c>
+      <c r="CY2">
+        <v>10</v>
+      </c>
+      <c r="CZ2">
+        <v>4</v>
+      </c>
+      <c r="DA2">
+        <v>8</v>
+      </c>
+      <c r="DB2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>3</v>
+      </c>
+      <c r="DD2">
+        <v>12</v>
+      </c>
+      <c r="DE2">
+        <v>6</v>
+      </c>
+      <c r="DF2">
+        <v>7</v>
+      </c>
+      <c r="DG2">
+        <v>12</v>
+      </c>
+      <c r="DH2">
+        <v>11</v>
+      </c>
+      <c r="DI2">
+        <v>4</v>
+      </c>
+      <c r="DJ2">
+        <v>15</v>
+      </c>
+      <c r="DK2">
+        <v>16</v>
+      </c>
+      <c r="DL2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1081,8 +1381,158 @@
       <c r="BN3" s="4">
         <v>31</v>
       </c>
+      <c r="BO3">
+        <v>13</v>
+      </c>
+      <c r="BP3">
+        <v>75</v>
+      </c>
+      <c r="BQ3">
+        <v>44</v>
+      </c>
+      <c r="BR3">
+        <v>54</v>
+      </c>
+      <c r="BS3">
+        <v>46</v>
+      </c>
+      <c r="BT3">
+        <v>37</v>
+      </c>
+      <c r="BU3">
+        <v>72</v>
+      </c>
+      <c r="BV3">
+        <v>39</v>
+      </c>
+      <c r="BW3">
+        <v>87</v>
+      </c>
+      <c r="BX3">
+        <v>58</v>
+      </c>
+      <c r="BY3">
+        <v>65</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>56</v>
+      </c>
+      <c r="CB3">
+        <v>91</v>
+      </c>
+      <c r="CC3">
+        <v>61</v>
+      </c>
+      <c r="CD3">
+        <v>107</v>
+      </c>
+      <c r="CE3">
+        <v>93</v>
+      </c>
+      <c r="CF3">
+        <v>97</v>
+      </c>
+      <c r="CG3">
+        <v>33</v>
+      </c>
+      <c r="CH3">
+        <v>67</v>
+      </c>
+      <c r="CI3">
+        <v>126</v>
+      </c>
+      <c r="CJ3">
+        <v>104</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <v>235</v>
+      </c>
+      <c r="CN3">
+        <v>122</v>
+      </c>
+      <c r="CO3">
+        <v>63</v>
+      </c>
+      <c r="CP3">
+        <v>71</v>
+      </c>
+      <c r="CQ3">
+        <v>81</v>
+      </c>
+      <c r="CR3">
+        <v>169</v>
+      </c>
+      <c r="CS3">
+        <v>59</v>
+      </c>
+      <c r="CT3">
+        <v>183</v>
+      </c>
+      <c r="CU3">
+        <v>206</v>
+      </c>
+      <c r="CV3">
+        <v>94</v>
+      </c>
+      <c r="CW3">
+        <v>73</v>
+      </c>
+      <c r="CX3">
+        <v>109</v>
+      </c>
+      <c r="CY3">
+        <v>129</v>
+      </c>
+      <c r="CZ3">
+        <v>92</v>
+      </c>
+      <c r="DA3">
+        <v>165</v>
+      </c>
+      <c r="DB3">
+        <v>158</v>
+      </c>
+      <c r="DC3">
+        <v>105</v>
+      </c>
+      <c r="DD3">
+        <v>143</v>
+      </c>
+      <c r="DE3">
+        <v>193</v>
+      </c>
+      <c r="DF3">
+        <v>205</v>
+      </c>
+      <c r="DG3">
+        <v>118</v>
+      </c>
+      <c r="DH3">
+        <v>244</v>
+      </c>
+      <c r="DI3">
+        <v>0</v>
+      </c>
+      <c r="DJ3">
+        <v>258</v>
+      </c>
+      <c r="DK3">
+        <v>322</v>
+      </c>
+      <c r="DL3">
+        <v>196</v>
+      </c>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1281,8 +1731,158 @@
       <c r="BN4" s="4">
         <v>14</v>
       </c>
+      <c r="BO4">
+        <v>9</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>24</v>
+      </c>
+      <c r="BT4">
+        <v>19</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>16</v>
+      </c>
+      <c r="BW4">
+        <v>22</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>16</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>61</v>
+      </c>
+      <c r="CC4">
+        <v>30</v>
+      </c>
+      <c r="CD4">
+        <v>30</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>31</v>
+      </c>
+      <c r="CI4">
+        <v>61</v>
+      </c>
+      <c r="CJ4">
+        <v>28</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>28</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>82</v>
+      </c>
+      <c r="CQ4">
+        <v>32</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>61</v>
+      </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>23</v>
+      </c>
+      <c r="CW4">
+        <v>53</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>64</v>
+      </c>
+      <c r="CZ4">
+        <v>24</v>
+      </c>
+      <c r="DA4">
+        <v>0</v>
+      </c>
+      <c r="DB4">
+        <v>25</v>
+      </c>
+      <c r="DC4">
+        <v>0</v>
+      </c>
+      <c r="DD4">
+        <v>73</v>
+      </c>
+      <c r="DE4">
+        <v>49</v>
+      </c>
+      <c r="DF4">
+        <v>0</v>
+      </c>
+      <c r="DG4">
+        <v>0</v>
+      </c>
+      <c r="DH4">
+        <v>0</v>
+      </c>
+      <c r="DI4">
+        <v>0</v>
+      </c>
+      <c r="DJ4">
+        <v>49</v>
+      </c>
+      <c r="DK4">
+        <v>0</v>
+      </c>
+      <c r="DL4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1481,8 +2081,158 @@
       <c r="BN5" s="4">
         <v>44</v>
       </c>
+      <c r="BO5">
+        <v>55</v>
+      </c>
+      <c r="BP5">
+        <v>163</v>
+      </c>
+      <c r="BQ5">
+        <v>65</v>
+      </c>
+      <c r="BR5">
+        <v>45</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>114</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>161</v>
+      </c>
+      <c r="BX5">
+        <v>210</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>141</v>
+      </c>
+      <c r="CA5">
+        <v>24</v>
+      </c>
+      <c r="CB5">
+        <v>88</v>
+      </c>
+      <c r="CC5">
+        <v>99</v>
+      </c>
+      <c r="CD5">
+        <v>123</v>
+      </c>
+      <c r="CE5">
+        <v>128</v>
+      </c>
+      <c r="CF5">
+        <v>129</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>228</v>
+      </c>
+      <c r="CI5">
+        <v>138</v>
+      </c>
+      <c r="CJ5">
+        <v>260</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>462</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5">
+        <v>127</v>
+      </c>
+      <c r="CP5">
+        <v>172</v>
+      </c>
+      <c r="CQ5">
+        <v>760</v>
+      </c>
+      <c r="CR5">
+        <v>602</v>
+      </c>
+      <c r="CS5">
+        <v>1285</v>
+      </c>
+      <c r="CT5">
+        <v>983</v>
+      </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
+        <v>311</v>
+      </c>
+      <c r="CW5">
+        <v>473</v>
+      </c>
+      <c r="CX5">
+        <v>1074</v>
+      </c>
+      <c r="CY5">
+        <v>221</v>
+      </c>
+      <c r="CZ5">
+        <v>133</v>
+      </c>
+      <c r="DA5">
+        <v>132</v>
+      </c>
+      <c r="DB5">
+        <v>0</v>
+      </c>
+      <c r="DC5">
+        <v>178</v>
+      </c>
+      <c r="DD5">
+        <v>81</v>
+      </c>
+      <c r="DE5">
+        <v>737</v>
+      </c>
+      <c r="DF5">
+        <v>223</v>
+      </c>
+      <c r="DG5">
+        <v>417</v>
+      </c>
+      <c r="DH5">
+        <v>100</v>
+      </c>
+      <c r="DI5">
+        <v>0</v>
+      </c>
+      <c r="DJ5">
+        <v>128</v>
+      </c>
+      <c r="DK5">
+        <v>1317</v>
+      </c>
+      <c r="DL5">
+        <v>352</v>
+      </c>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1681,8 +2431,158 @@
       <c r="BN6" s="4">
         <v>69</v>
       </c>
+      <c r="BO6">
+        <v>53</v>
+      </c>
+      <c r="BP6">
+        <v>64</v>
+      </c>
+      <c r="BQ6">
+        <v>43</v>
+      </c>
+      <c r="BR6">
+        <v>52</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>108</v>
+      </c>
+      <c r="BU6">
+        <v>61</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>128</v>
+      </c>
+      <c r="BX6">
+        <v>64</v>
+      </c>
+      <c r="BY6">
+        <v>112</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>126</v>
+      </c>
+      <c r="CB6">
+        <v>61</v>
+      </c>
+      <c r="CC6">
+        <v>66</v>
+      </c>
+      <c r="CD6">
+        <v>81</v>
+      </c>
+      <c r="CE6">
+        <v>96</v>
+      </c>
+      <c r="CF6">
+        <v>106</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>130</v>
+      </c>
+      <c r="CI6">
+        <v>128</v>
+      </c>
+      <c r="CJ6">
+        <v>75</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
+        <v>166</v>
+      </c>
+      <c r="CM6">
+        <v>55</v>
+      </c>
+      <c r="CN6">
+        <v>270</v>
+      </c>
+      <c r="CO6">
+        <v>176</v>
+      </c>
+      <c r="CP6">
+        <v>106</v>
+      </c>
+      <c r="CQ6">
+        <v>133</v>
+      </c>
+      <c r="CR6">
+        <v>123</v>
+      </c>
+      <c r="CS6">
+        <v>105</v>
+      </c>
+      <c r="CT6">
+        <v>185</v>
+      </c>
+      <c r="CU6">
+        <v>0</v>
+      </c>
+      <c r="CV6">
+        <v>238</v>
+      </c>
+      <c r="CW6">
+        <v>81</v>
+      </c>
+      <c r="CX6">
+        <v>146</v>
+      </c>
+      <c r="CY6">
+        <v>121</v>
+      </c>
+      <c r="CZ6">
+        <v>169</v>
+      </c>
+      <c r="DA6">
+        <v>223</v>
+      </c>
+      <c r="DB6">
+        <v>0</v>
+      </c>
+      <c r="DC6">
+        <v>258</v>
+      </c>
+      <c r="DD6">
+        <v>121</v>
+      </c>
+      <c r="DE6">
+        <v>206</v>
+      </c>
+      <c r="DF6">
+        <v>180</v>
+      </c>
+      <c r="DG6">
+        <v>181</v>
+      </c>
+      <c r="DH6">
+        <v>180</v>
+      </c>
+      <c r="DI6">
+        <v>0</v>
+      </c>
+      <c r="DJ6">
+        <v>258</v>
+      </c>
+      <c r="DK6">
+        <v>268</v>
+      </c>
+      <c r="DL6">
+        <v>171</v>
+      </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1882,8 +2782,158 @@
       <c r="BN7" s="4">
         <v>447</v>
       </c>
+      <c r="BO7">
+        <v>496</v>
+      </c>
+      <c r="BP7">
+        <v>635</v>
+      </c>
+      <c r="BQ7">
+        <v>615</v>
+      </c>
+      <c r="BR7">
+        <v>458</v>
+      </c>
+      <c r="BS7">
+        <v>650</v>
+      </c>
+      <c r="BT7">
+        <v>493</v>
+      </c>
+      <c r="BU7">
+        <v>661</v>
+      </c>
+      <c r="BV7">
+        <v>325</v>
+      </c>
+      <c r="BW7">
+        <v>843</v>
+      </c>
+      <c r="BX7">
+        <v>711</v>
+      </c>
+      <c r="BY7">
+        <v>624</v>
+      </c>
+      <c r="BZ7">
+        <v>1027</v>
+      </c>
+      <c r="CA7">
+        <v>262</v>
+      </c>
+      <c r="CB7">
+        <v>450</v>
+      </c>
+      <c r="CC7">
+        <v>1458</v>
+      </c>
+      <c r="CD7">
+        <v>1275</v>
+      </c>
+      <c r="CE7">
+        <v>1014</v>
+      </c>
+      <c r="CF7">
+        <v>1371</v>
+      </c>
+      <c r="CG7">
+        <v>727</v>
+      </c>
+      <c r="CH7">
+        <v>873</v>
+      </c>
+      <c r="CI7">
+        <v>1281</v>
+      </c>
+      <c r="CJ7">
+        <v>1766</v>
+      </c>
+      <c r="CK7">
+        <v>558</v>
+      </c>
+      <c r="CL7">
+        <v>105</v>
+      </c>
+      <c r="CM7">
+        <v>60</v>
+      </c>
+      <c r="CN7">
+        <v>2614</v>
+      </c>
+      <c r="CO7">
+        <v>810</v>
+      </c>
+      <c r="CP7">
+        <v>583</v>
+      </c>
+      <c r="CQ7">
+        <v>903</v>
+      </c>
+      <c r="CR7">
+        <v>1734</v>
+      </c>
+      <c r="CS7">
+        <v>557</v>
+      </c>
+      <c r="CT7">
+        <v>1027</v>
+      </c>
+      <c r="CU7">
+        <v>2192</v>
+      </c>
+      <c r="CV7">
+        <v>515</v>
+      </c>
+      <c r="CW7">
+        <v>745</v>
+      </c>
+      <c r="CX7">
+        <v>941</v>
+      </c>
+      <c r="CY7">
+        <v>1266</v>
+      </c>
+      <c r="CZ7">
+        <v>1896</v>
+      </c>
+      <c r="DA7">
+        <v>1000</v>
+      </c>
+      <c r="DB7">
+        <v>1416</v>
+      </c>
+      <c r="DC7">
+        <v>1264</v>
+      </c>
+      <c r="DD7">
+        <v>1489</v>
+      </c>
+      <c r="DE7">
+        <v>2265</v>
+      </c>
+      <c r="DF7">
+        <v>991</v>
+      </c>
+      <c r="DG7">
+        <v>1140</v>
+      </c>
+      <c r="DH7">
+        <v>1266</v>
+      </c>
+      <c r="DI7">
+        <v>2097</v>
+      </c>
+      <c r="DJ7">
+        <v>2481</v>
+      </c>
+      <c r="DK7">
+        <v>988</v>
+      </c>
+      <c r="DL7">
+        <v>1231</v>
+      </c>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2083,8 +3133,158 @@
       <c r="BN8" s="4">
         <v>7</v>
       </c>
+      <c r="BO8">
+        <v>-3</v>
+      </c>
+      <c r="BP8">
+        <v>1</v>
+      </c>
+      <c r="BQ8">
+        <v>1</v>
+      </c>
+      <c r="BR8">
+        <v>7</v>
+      </c>
+      <c r="BS8">
+        <v>0</v>
+      </c>
+      <c r="BT8">
+        <v>-12</v>
+      </c>
+      <c r="BU8">
+        <v>6</v>
+      </c>
+      <c r="BV8">
+        <v>1</v>
+      </c>
+      <c r="BW8">
+        <v>14</v>
+      </c>
+      <c r="BX8">
+        <v>9</v>
+      </c>
+      <c r="BY8">
+        <v>12</v>
+      </c>
+      <c r="BZ8">
+        <v>0</v>
+      </c>
+      <c r="CA8">
+        <v>5</v>
+      </c>
+      <c r="CB8">
+        <v>0</v>
+      </c>
+      <c r="CC8">
+        <v>-1</v>
+      </c>
+      <c r="CD8">
+        <v>13</v>
+      </c>
+      <c r="CE8">
+        <v>15</v>
+      </c>
+      <c r="CF8">
+        <v>4</v>
+      </c>
+      <c r="CG8">
+        <v>17</v>
+      </c>
+      <c r="CH8">
+        <v>18</v>
+      </c>
+      <c r="CI8">
+        <v>15</v>
+      </c>
+      <c r="CJ8">
+        <v>9</v>
+      </c>
+      <c r="CK8">
+        <v>18</v>
+      </c>
+      <c r="CL8">
+        <v>25</v>
+      </c>
+      <c r="CM8">
+        <v>20</v>
+      </c>
+      <c r="CN8">
+        <v>17</v>
+      </c>
+      <c r="CO8">
+        <v>12</v>
+      </c>
+      <c r="CP8">
+        <v>3</v>
+      </c>
+      <c r="CQ8">
+        <v>9</v>
+      </c>
+      <c r="CR8">
+        <v>4</v>
+      </c>
+      <c r="CS8">
+        <v>7</v>
+      </c>
+      <c r="CT8">
+        <v>17</v>
+      </c>
+      <c r="CU8">
+        <v>24</v>
+      </c>
+      <c r="CV8">
+        <v>25</v>
+      </c>
+      <c r="CW8">
+        <v>12</v>
+      </c>
+      <c r="CX8">
+        <v>9</v>
+      </c>
+      <c r="CY8">
+        <v>29</v>
+      </c>
+      <c r="CZ8">
+        <v>9</v>
+      </c>
+      <c r="DA8">
+        <v>24</v>
+      </c>
+      <c r="DB8">
+        <v>18</v>
+      </c>
+      <c r="DC8">
+        <v>19</v>
+      </c>
+      <c r="DD8">
+        <v>21</v>
+      </c>
+      <c r="DE8">
+        <v>24</v>
+      </c>
+      <c r="DF8">
+        <v>33</v>
+      </c>
+      <c r="DG8">
+        <v>35</v>
+      </c>
+      <c r="DH8">
+        <v>24</v>
+      </c>
+      <c r="DI8">
+        <v>15</v>
+      </c>
+      <c r="DJ8">
+        <v>31</v>
+      </c>
+      <c r="DK8">
+        <v>42</v>
+      </c>
+      <c r="DL8">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2284,8 +3484,158 @@
       <c r="BN9" s="4">
         <v>56</v>
       </c>
+      <c r="BO9">
+        <v>38</v>
+      </c>
+      <c r="BP9">
+        <v>30</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <v>0</v>
+      </c>
+      <c r="BS9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BU9">
+        <v>0</v>
+      </c>
+      <c r="BV9">
+        <v>0</v>
+      </c>
+      <c r="BW9">
+        <v>0</v>
+      </c>
+      <c r="BX9">
+        <v>0</v>
+      </c>
+      <c r="BY9">
+        <v>0</v>
+      </c>
+      <c r="BZ9">
+        <v>0</v>
+      </c>
+      <c r="CA9">
+        <v>0</v>
+      </c>
+      <c r="CB9">
+        <v>0</v>
+      </c>
+      <c r="CC9">
+        <v>729</v>
+      </c>
+      <c r="CD9">
+        <v>0</v>
+      </c>
+      <c r="CE9">
+        <v>484</v>
+      </c>
+      <c r="CF9">
+        <v>0</v>
+      </c>
+      <c r="CG9">
+        <v>0</v>
+      </c>
+      <c r="CH9">
+        <v>0</v>
+      </c>
+      <c r="CI9">
+        <v>0</v>
+      </c>
+      <c r="CJ9">
+        <v>0</v>
+      </c>
+      <c r="CK9">
+        <v>0</v>
+      </c>
+      <c r="CL9">
+        <v>0</v>
+      </c>
+      <c r="CM9">
+        <v>0</v>
+      </c>
+      <c r="CN9">
+        <v>0</v>
+      </c>
+      <c r="CO9">
+        <v>1994</v>
+      </c>
+      <c r="CP9">
+        <v>269</v>
+      </c>
+      <c r="CQ9">
+        <v>190</v>
+      </c>
+      <c r="CR9">
+        <v>0</v>
+      </c>
+      <c r="CS9">
+        <v>0</v>
+      </c>
+      <c r="CT9">
+        <v>0</v>
+      </c>
+      <c r="CU9">
+        <v>0</v>
+      </c>
+      <c r="CV9">
+        <v>408</v>
+      </c>
+      <c r="CW9">
+        <v>140</v>
+      </c>
+      <c r="CX9">
+        <v>172</v>
+      </c>
+      <c r="CY9">
+        <v>120</v>
+      </c>
+      <c r="CZ9">
+        <v>246</v>
+      </c>
+      <c r="DA9">
+        <v>0</v>
+      </c>
+      <c r="DB9">
+        <v>0</v>
+      </c>
+      <c r="DC9">
+        <v>457</v>
+      </c>
+      <c r="DD9">
+        <v>296</v>
+      </c>
+      <c r="DE9">
+        <v>281</v>
+      </c>
+      <c r="DF9">
+        <v>138</v>
+      </c>
+      <c r="DG9">
+        <v>196</v>
+      </c>
+      <c r="DH9">
+        <v>0</v>
+      </c>
+      <c r="DI9">
+        <v>0</v>
+      </c>
+      <c r="DJ9">
+        <v>0</v>
+      </c>
+      <c r="DK9">
+        <v>1045</v>
+      </c>
+      <c r="DL9">
+        <v>394</v>
+      </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2484,8 +3834,158 @@
       <c r="BN10" s="4">
         <v>4</v>
       </c>
+      <c r="BO10">
+        <v>0</v>
+      </c>
+      <c r="BP10">
+        <v>3</v>
+      </c>
+      <c r="BQ10">
+        <v>3</v>
+      </c>
+      <c r="BR10">
+        <v>5</v>
+      </c>
+      <c r="BS10">
+        <v>1</v>
+      </c>
+      <c r="BT10">
+        <v>9</v>
+      </c>
+      <c r="BU10">
+        <v>2</v>
+      </c>
+      <c r="BV10">
+        <v>1</v>
+      </c>
+      <c r="BW10">
+        <v>0</v>
+      </c>
+      <c r="BX10">
+        <v>1</v>
+      </c>
+      <c r="BY10">
+        <v>5</v>
+      </c>
+      <c r="BZ10">
+        <v>0</v>
+      </c>
+      <c r="CA10">
+        <v>8</v>
+      </c>
+      <c r="CB10">
+        <v>0</v>
+      </c>
+      <c r="CC10">
+        <v>4</v>
+      </c>
+      <c r="CD10">
+        <v>14</v>
+      </c>
+      <c r="CE10">
+        <v>9</v>
+      </c>
+      <c r="CF10">
+        <v>6</v>
+      </c>
+      <c r="CG10">
+        <v>18</v>
+      </c>
+      <c r="CH10">
+        <v>9</v>
+      </c>
+      <c r="CI10">
+        <v>11</v>
+      </c>
+      <c r="CJ10">
+        <v>10</v>
+      </c>
+      <c r="CK10">
+        <v>16</v>
+      </c>
+      <c r="CL10">
+        <v>6</v>
+      </c>
+      <c r="CM10">
+        <v>11</v>
+      </c>
+      <c r="CN10">
+        <v>19</v>
+      </c>
+      <c r="CO10">
+        <v>27</v>
+      </c>
+      <c r="CP10">
+        <v>0</v>
+      </c>
+      <c r="CQ10">
+        <v>10</v>
+      </c>
+      <c r="CR10">
+        <v>11</v>
+      </c>
+      <c r="CS10">
+        <v>8</v>
+      </c>
+      <c r="CT10">
+        <v>12</v>
+      </c>
+      <c r="CU10">
+        <v>18</v>
+      </c>
+      <c r="CV10">
+        <v>21</v>
+      </c>
+      <c r="CW10">
+        <v>4</v>
+      </c>
+      <c r="CX10">
+        <v>11</v>
+      </c>
+      <c r="CY10">
+        <v>24</v>
+      </c>
+      <c r="CZ10">
+        <v>16</v>
+      </c>
+      <c r="DA10">
+        <v>23</v>
+      </c>
+      <c r="DB10">
+        <v>25</v>
+      </c>
+      <c r="DC10">
+        <v>23</v>
+      </c>
+      <c r="DD10">
+        <v>6</v>
+      </c>
+      <c r="DE10">
+        <v>21</v>
+      </c>
+      <c r="DF10">
+        <v>25</v>
+      </c>
+      <c r="DG10">
+        <v>37</v>
+      </c>
+      <c r="DH10">
+        <v>18</v>
+      </c>
+      <c r="DI10">
+        <v>30</v>
+      </c>
+      <c r="DJ10">
+        <v>42</v>
+      </c>
+      <c r="DK10">
+        <v>40</v>
+      </c>
+      <c r="DL10">
+        <v>14</v>
+      </c>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2642,7 +4142,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2650,7 +4150,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:116" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>

--- a/TSHS_CaseCountData/DSHS New County Data.xlsx
+++ b/TSHS_CaseCountData/DSHS New County Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yipenggao/Documents/Amos_lab/covid-19-county-R0/TSHS_CaseCountData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7418C2A4-E0D8-3445-B930-575336EBF858}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C44A99-C07E-9A48-9AB9-24B4BF4B81CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
   </bookViews>
   <sheets>
     <sheet name="County Dashboard" sheetId="1" r:id="rId1"/>
@@ -468,11 +468,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DE25F0-E558-784A-AF10-BC9084C29ADA}">
-  <dimension ref="A1:DL17"/>
+  <dimension ref="A1:DO17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DA24" sqref="DA24"/>
+      <pane xSplit="1" topLeftCell="DD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DQ6" sqref="DQ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -481,7 +481,7 @@
     <col min="2" max="17" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:116" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:119" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -830,8 +830,17 @@
       <c r="DL1" s="1">
         <v>44189</v>
       </c>
+      <c r="DM1" s="1">
+        <v>44190</v>
+      </c>
+      <c r="DN1" s="1">
+        <v>44191</v>
+      </c>
+      <c r="DO1" s="1">
+        <v>44192</v>
+      </c>
     </row>
-    <row r="2" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:119" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1180,8 +1189,17 @@
       <c r="DL2">
         <v>10</v>
       </c>
+      <c r="DM2" s="4">
+        <v>7</v>
+      </c>
+      <c r="DN2" s="4">
+        <v>26</v>
+      </c>
+      <c r="DO2" s="4">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:119" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1531,8 +1549,17 @@
       <c r="DL3">
         <v>196</v>
       </c>
+      <c r="DM3" s="4">
+        <v>0</v>
+      </c>
+      <c r="DN3" s="4">
+        <v>164</v>
+      </c>
+      <c r="DO3" s="4">
+        <v>369</v>
+      </c>
     </row>
-    <row r="4" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:119" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1881,8 +1908,17 @@
       <c r="DL4">
         <v>99</v>
       </c>
+      <c r="DM4" s="4">
+        <v>0</v>
+      </c>
+      <c r="DN4" s="4">
+        <v>0</v>
+      </c>
+      <c r="DO4" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:119" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2231,8 +2267,17 @@
       <c r="DL5">
         <v>352</v>
       </c>
+      <c r="DM5" s="4">
+        <v>0</v>
+      </c>
+      <c r="DN5" s="4">
+        <v>0</v>
+      </c>
+      <c r="DO5" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:119" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2581,8 +2626,17 @@
       <c r="DL6">
         <v>171</v>
       </c>
+      <c r="DM6" s="4">
+        <v>0</v>
+      </c>
+      <c r="DN6" s="4">
+        <v>554</v>
+      </c>
+      <c r="DO6" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:119" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2932,8 +2986,17 @@
       <c r="DL7">
         <v>1231</v>
       </c>
+      <c r="DM7" s="4">
+        <v>263</v>
+      </c>
+      <c r="DN7" s="4">
+        <v>73</v>
+      </c>
+      <c r="DO7" s="4">
+        <v>5340</v>
+      </c>
     </row>
-    <row r="8" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:119" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3283,8 +3346,17 @@
       <c r="DL8">
         <v>16</v>
       </c>
+      <c r="DM8" s="4">
+        <v>48</v>
+      </c>
+      <c r="DN8" s="4">
+        <v>32</v>
+      </c>
+      <c r="DO8" s="4">
+        <v>36</v>
+      </c>
     </row>
-    <row r="9" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:119" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3634,8 +3706,17 @@
       <c r="DL9">
         <v>394</v>
       </c>
+      <c r="DM9" s="4">
+        <v>0</v>
+      </c>
+      <c r="DN9" s="4">
+        <v>0</v>
+      </c>
+      <c r="DO9" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:119" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3984,8 +4065,17 @@
       <c r="DL10">
         <v>14</v>
       </c>
+      <c r="DM10" s="4">
+        <v>22</v>
+      </c>
+      <c r="DN10" s="4">
+        <v>31</v>
+      </c>
+      <c r="DO10" s="4">
+        <v>15</v>
+      </c>
     </row>
-    <row r="11" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:119" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4142,7 +4232,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="13" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:119" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4150,7 +4240,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:116" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:119" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>

--- a/TSHS_CaseCountData/DSHS New County Data.xlsx
+++ b/TSHS_CaseCountData/DSHS New County Data.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yipenggao/Documents/Amos_lab/covid-19-county-R0/TSHS_CaseCountData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C44A99-C07E-9A48-9AB9-24B4BF4B81CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C42017-E35F-1A45-AAED-7684B5384EE0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
+    <workbookView xWindow="-12300" yWindow="-24560" windowWidth="37200" windowHeight="17380" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
   </bookViews>
   <sheets>
     <sheet name="County Dashboard" sheetId="1" r:id="rId1"/>
     <sheet name="Comparative" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -468,11 +468,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DE25F0-E558-784A-AF10-BC9084C29ADA}">
-  <dimension ref="A1:DO17"/>
+  <dimension ref="A1:DV17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
       <pane xSplit="1" topLeftCell="DD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DQ6" sqref="DQ6"/>
+      <selection pane="topRight" activeCell="DV1" sqref="DV1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -481,7 +481,7 @@
     <col min="2" max="17" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:126" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -839,8 +839,29 @@
       <c r="DO1" s="1">
         <v>44192</v>
       </c>
+      <c r="DP1" s="1">
+        <v>44193</v>
+      </c>
+      <c r="DQ1" s="1">
+        <v>44194</v>
+      </c>
+      <c r="DR1" s="1">
+        <v>44195</v>
+      </c>
+      <c r="DS1" s="1">
+        <v>44196</v>
+      </c>
+      <c r="DT1" s="1">
+        <v>44197</v>
+      </c>
+      <c r="DU1" s="1">
+        <v>44198</v>
+      </c>
+      <c r="DV1" s="1">
+        <v>44199</v>
+      </c>
     </row>
-    <row r="2" spans="1:119" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1189,17 +1210,38 @@
       <c r="DL2">
         <v>10</v>
       </c>
-      <c r="DM2" s="4">
+      <c r="DM2">
+        <v>5</v>
+      </c>
+      <c r="DN2" s="4">
         <v>7</v>
       </c>
-      <c r="DN2" s="4">
+      <c r="DO2" s="4">
         <v>26</v>
       </c>
-      <c r="DO2" s="4">
+      <c r="DP2" s="4">
         <v>12</v>
       </c>
+      <c r="DQ2">
+        <v>0</v>
+      </c>
+      <c r="DR2">
+        <v>18</v>
+      </c>
+      <c r="DS2">
+        <v>7</v>
+      </c>
+      <c r="DT2">
+        <v>6</v>
+      </c>
+      <c r="DU2">
+        <v>12</v>
+      </c>
+      <c r="DV2">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:119" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1549,17 +1591,38 @@
       <c r="DL3">
         <v>196</v>
       </c>
-      <c r="DM3" s="4">
-        <v>0</v>
+      <c r="DM3">
+        <v>145</v>
       </c>
       <c r="DN3" s="4">
+        <v>0</v>
+      </c>
+      <c r="DO3" s="4">
         <v>164</v>
       </c>
-      <c r="DO3" s="4">
+      <c r="DP3" s="4">
         <v>369</v>
       </c>
+      <c r="DQ3">
+        <v>13</v>
+      </c>
+      <c r="DR3">
+        <v>216</v>
+      </c>
+      <c r="DS3">
+        <v>313</v>
+      </c>
+      <c r="DT3">
+        <v>196</v>
+      </c>
+      <c r="DU3">
+        <v>0</v>
+      </c>
+      <c r="DV3">
+        <v>152</v>
+      </c>
     </row>
-    <row r="4" spans="1:119" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1908,7 +1971,7 @@
       <c r="DL4">
         <v>99</v>
       </c>
-      <c r="DM4" s="4">
+      <c r="DM4">
         <v>0</v>
       </c>
       <c r="DN4" s="4">
@@ -1917,8 +1980,29 @@
       <c r="DO4" s="4">
         <v>0</v>
       </c>
+      <c r="DP4" s="4">
+        <v>0</v>
+      </c>
+      <c r="DQ4">
+        <v>0</v>
+      </c>
+      <c r="DR4">
+        <v>0</v>
+      </c>
+      <c r="DS4">
+        <v>0</v>
+      </c>
+      <c r="DT4">
+        <v>0</v>
+      </c>
+      <c r="DU4">
+        <v>0</v>
+      </c>
+      <c r="DV4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:119" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2267,7 +2351,7 @@
       <c r="DL5">
         <v>352</v>
       </c>
-      <c r="DM5" s="4">
+      <c r="DM5">
         <v>0</v>
       </c>
       <c r="DN5" s="4">
@@ -2276,8 +2360,29 @@
       <c r="DO5" s="4">
         <v>0</v>
       </c>
+      <c r="DP5" s="4">
+        <v>0</v>
+      </c>
+      <c r="DQ5">
+        <v>404</v>
+      </c>
+      <c r="DR5">
+        <v>1212</v>
+      </c>
+      <c r="DS5">
+        <v>346</v>
+      </c>
+      <c r="DT5">
+        <v>166</v>
+      </c>
+      <c r="DU5">
+        <v>0</v>
+      </c>
+      <c r="DV5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:119" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2626,17 +2731,38 @@
       <c r="DL6">
         <v>171</v>
       </c>
-      <c r="DM6" s="4">
+      <c r="DM6">
         <v>0</v>
       </c>
       <c r="DN6" s="4">
+        <v>0</v>
+      </c>
+      <c r="DO6" s="4">
         <v>554</v>
       </c>
-      <c r="DO6" s="4">
-        <v>0</v>
+      <c r="DP6" s="4">
+        <v>0</v>
+      </c>
+      <c r="DQ6">
+        <v>219</v>
+      </c>
+      <c r="DR6">
+        <v>242</v>
+      </c>
+      <c r="DS6">
+        <v>206</v>
+      </c>
+      <c r="DT6">
+        <v>292</v>
+      </c>
+      <c r="DU6">
+        <v>0</v>
+      </c>
+      <c r="DV6">
+        <v>543</v>
       </c>
     </row>
-    <row r="7" spans="1:119" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2986,17 +3112,38 @@
       <c r="DL7">
         <v>1231</v>
       </c>
-      <c r="DM7" s="4">
+      <c r="DM7">
+        <v>838</v>
+      </c>
+      <c r="DN7" s="4">
         <v>263</v>
       </c>
-      <c r="DN7" s="4">
+      <c r="DO7" s="4">
         <v>73</v>
       </c>
-      <c r="DO7" s="4">
+      <c r="DP7" s="4">
         <v>5340</v>
       </c>
+      <c r="DQ7">
+        <v>1623</v>
+      </c>
+      <c r="DR7">
+        <v>1278</v>
+      </c>
+      <c r="DS7">
+        <v>1754</v>
+      </c>
+      <c r="DT7">
+        <v>1036</v>
+      </c>
+      <c r="DU7">
+        <v>1677</v>
+      </c>
+      <c r="DV7">
+        <v>3402</v>
+      </c>
     </row>
-    <row r="8" spans="1:119" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3346,17 +3493,38 @@
       <c r="DL8">
         <v>16</v>
       </c>
-      <c r="DM8" s="4">
+      <c r="DM8">
+        <v>22</v>
+      </c>
+      <c r="DN8" s="4">
         <v>48</v>
       </c>
-      <c r="DN8" s="4">
+      <c r="DO8" s="4">
         <v>32</v>
       </c>
-      <c r="DO8" s="4">
+      <c r="DP8" s="4">
         <v>36</v>
       </c>
+      <c r="DQ8">
+        <v>-3</v>
+      </c>
+      <c r="DR8">
+        <v>34</v>
+      </c>
+      <c r="DS8">
+        <v>7</v>
+      </c>
+      <c r="DT8">
+        <v>16</v>
+      </c>
+      <c r="DU8">
+        <v>14</v>
+      </c>
+      <c r="DV8">
+        <v>49</v>
+      </c>
     </row>
-    <row r="9" spans="1:119" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3706,7 +3874,7 @@
       <c r="DL9">
         <v>394</v>
       </c>
-      <c r="DM9" s="4">
+      <c r="DM9">
         <v>0</v>
       </c>
       <c r="DN9" s="4">
@@ -3715,8 +3883,29 @@
       <c r="DO9" s="4">
         <v>0</v>
       </c>
+      <c r="DP9" s="4">
+        <v>0</v>
+      </c>
+      <c r="DQ9">
+        <v>0</v>
+      </c>
+      <c r="DR9">
+        <v>1708</v>
+      </c>
+      <c r="DS9">
+        <v>192</v>
+      </c>
+      <c r="DT9">
+        <v>0</v>
+      </c>
+      <c r="DU9">
+        <v>0</v>
+      </c>
+      <c r="DV9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:119" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4065,17 +4254,38 @@
       <c r="DL10">
         <v>14</v>
       </c>
-      <c r="DM10" s="4">
+      <c r="DM10">
+        <v>9</v>
+      </c>
+      <c r="DN10" s="4">
         <v>22</v>
       </c>
-      <c r="DN10" s="4">
+      <c r="DO10" s="4">
         <v>31</v>
       </c>
-      <c r="DO10" s="4">
+      <c r="DP10" s="4">
         <v>15</v>
       </c>
+      <c r="DQ10">
+        <v>2</v>
+      </c>
+      <c r="DR10">
+        <v>33</v>
+      </c>
+      <c r="DS10">
+        <v>7</v>
+      </c>
+      <c r="DT10">
+        <v>17</v>
+      </c>
+      <c r="DU10">
+        <v>13</v>
+      </c>
+      <c r="DV10">
+        <v>27</v>
+      </c>
     </row>
-    <row r="11" spans="1:119" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4232,7 +4442,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="13" spans="1:119" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4240,7 +4450,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:119" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>

--- a/TSHS_CaseCountData/DSHS New County Data.xlsx
+++ b/TSHS_CaseCountData/DSHS New County Data.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yipenggao/Documents/Amos_lab/covid-19-county-R0/TSHS_CaseCountData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C42017-E35F-1A45-AAED-7684B5384EE0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1855F98F-90CE-2449-8FA7-36DED423963B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12300" yWindow="-24560" windowWidth="37200" windowHeight="17380" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
+    <workbookView xWindow="-11960" yWindow="-22220" windowWidth="52400" windowHeight="18380" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
   </bookViews>
   <sheets>
     <sheet name="County Dashboard" sheetId="1" r:id="rId1"/>
     <sheet name="Comparative" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -468,11 +468,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DE25F0-E558-784A-AF10-BC9084C29ADA}">
-  <dimension ref="A1:DV17"/>
+  <dimension ref="A1:ED17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
       <pane xSplit="1" topLeftCell="DD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DV1" sqref="DV1"/>
+      <selection pane="topRight" activeCell="EC17" sqref="EC17:EC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -481,7 +481,7 @@
     <col min="2" max="17" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:126" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:134" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -860,8 +860,32 @@
       <c r="DV1" s="1">
         <v>44199</v>
       </c>
+      <c r="DW1" s="1">
+        <v>44200</v>
+      </c>
+      <c r="DX1" s="1">
+        <v>44201</v>
+      </c>
+      <c r="DY1" s="1">
+        <v>44202</v>
+      </c>
+      <c r="DZ1" s="1">
+        <v>44203</v>
+      </c>
+      <c r="EA1" s="1">
+        <v>44204</v>
+      </c>
+      <c r="EB1" s="1">
+        <v>44205</v>
+      </c>
+      <c r="EC1" s="1">
+        <v>44206</v>
+      </c>
+      <c r="ED1" s="1">
+        <v>44207</v>
+      </c>
     </row>
-    <row r="2" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:134" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1240,8 +1264,32 @@
       <c r="DV2">
         <v>22</v>
       </c>
+      <c r="DW2">
+        <v>39</v>
+      </c>
+      <c r="DX2">
+        <v>13</v>
+      </c>
+      <c r="DY2">
+        <v>11</v>
+      </c>
+      <c r="DZ2">
+        <v>11</v>
+      </c>
+      <c r="EA2">
+        <v>4</v>
+      </c>
+      <c r="EB2">
+        <v>18</v>
+      </c>
+      <c r="EC2">
+        <v>20</v>
+      </c>
+      <c r="ED2">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:134" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1621,8 +1669,32 @@
       <c r="DV3">
         <v>152</v>
       </c>
+      <c r="DW3">
+        <v>0</v>
+      </c>
+      <c r="DX3">
+        <v>603</v>
+      </c>
+      <c r="DY3">
+        <v>192</v>
+      </c>
+      <c r="DZ3">
+        <v>236</v>
+      </c>
+      <c r="EA3">
+        <v>187</v>
+      </c>
+      <c r="EB3">
+        <v>166</v>
+      </c>
+      <c r="EC3">
+        <v>192</v>
+      </c>
+      <c r="ED3">
+        <v>244</v>
+      </c>
     </row>
-    <row r="4" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:134" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2001,8 +2073,32 @@
       <c r="DV4">
         <v>0</v>
       </c>
+      <c r="DW4">
+        <v>0</v>
+      </c>
+      <c r="DX4">
+        <v>0</v>
+      </c>
+      <c r="DY4">
+        <v>289</v>
+      </c>
+      <c r="DZ4">
+        <v>206</v>
+      </c>
+      <c r="EA4">
+        <v>0</v>
+      </c>
+      <c r="EB4">
+        <v>0</v>
+      </c>
+      <c r="EC4">
+        <v>0</v>
+      </c>
+      <c r="ED4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:134" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2381,8 +2477,32 @@
       <c r="DV5">
         <v>0</v>
       </c>
+      <c r="DW5">
+        <v>0</v>
+      </c>
+      <c r="DX5">
+        <v>202</v>
+      </c>
+      <c r="DY5">
+        <v>720</v>
+      </c>
+      <c r="DZ5">
+        <v>1362</v>
+      </c>
+      <c r="EA5">
+        <v>392</v>
+      </c>
+      <c r="EB5">
+        <v>340</v>
+      </c>
+      <c r="EC5">
+        <v>0</v>
+      </c>
+      <c r="ED5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:134" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2761,8 +2881,32 @@
       <c r="DV6">
         <v>543</v>
       </c>
+      <c r="DW6">
+        <v>0</v>
+      </c>
+      <c r="DX6">
+        <v>331</v>
+      </c>
+      <c r="DY6">
+        <v>280</v>
+      </c>
+      <c r="DZ6">
+        <v>164</v>
+      </c>
+      <c r="EA6">
+        <v>308</v>
+      </c>
+      <c r="EB6">
+        <v>267</v>
+      </c>
+      <c r="EC6">
+        <v>252</v>
+      </c>
+      <c r="ED6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:134" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3142,8 +3286,32 @@
       <c r="DV7">
         <v>3402</v>
       </c>
+      <c r="DW7">
+        <v>2492</v>
+      </c>
+      <c r="DX7">
+        <v>1777</v>
+      </c>
+      <c r="DY7">
+        <v>1927</v>
+      </c>
+      <c r="DZ7">
+        <v>1235</v>
+      </c>
+      <c r="EA7">
+        <v>2589</v>
+      </c>
+      <c r="EB7">
+        <v>2164</v>
+      </c>
+      <c r="EC7">
+        <v>3536</v>
+      </c>
+      <c r="ED7">
+        <v>2579</v>
+      </c>
     </row>
-    <row r="8" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:134" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3523,8 +3691,32 @@
       <c r="DV8">
         <v>49</v>
       </c>
+      <c r="DW8">
+        <v>76</v>
+      </c>
+      <c r="DX8">
+        <v>25</v>
+      </c>
+      <c r="DY8">
+        <v>40</v>
+      </c>
+      <c r="DZ8">
+        <v>29</v>
+      </c>
+      <c r="EA8">
+        <v>10</v>
+      </c>
+      <c r="EB8">
+        <v>29</v>
+      </c>
+      <c r="EC8">
+        <v>17</v>
+      </c>
+      <c r="ED8">
+        <v>57</v>
+      </c>
     </row>
-    <row r="9" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:134" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3904,8 +4096,32 @@
       <c r="DV9">
         <v>0</v>
       </c>
+      <c r="DW9">
+        <v>0</v>
+      </c>
+      <c r="DX9">
+        <v>1549</v>
+      </c>
+      <c r="DY9">
+        <v>371</v>
+      </c>
+      <c r="DZ9">
+        <v>350</v>
+      </c>
+      <c r="EA9">
+        <v>243</v>
+      </c>
+      <c r="EB9">
+        <v>177</v>
+      </c>
+      <c r="EC9">
+        <v>0</v>
+      </c>
+      <c r="ED9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:134" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4284,8 +4500,32 @@
       <c r="DV10">
         <v>27</v>
       </c>
+      <c r="DW10">
+        <v>52</v>
+      </c>
+      <c r="DX10">
+        <v>15</v>
+      </c>
+      <c r="DY10">
+        <v>31</v>
+      </c>
+      <c r="DZ10">
+        <v>16</v>
+      </c>
+      <c r="EA10">
+        <v>21</v>
+      </c>
+      <c r="EB10">
+        <v>16</v>
+      </c>
+      <c r="EC10">
+        <v>36</v>
+      </c>
+      <c r="ED10">
+        <v>33</v>
+      </c>
     </row>
-    <row r="11" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:134" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4442,7 +4682,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="13" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:134" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4450,7 +4690,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:134" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>

--- a/TSHS_CaseCountData/DSHS New County Data.xlsx
+++ b/TSHS_CaseCountData/DSHS New County Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yipenggao/Documents/Amos_lab/covid-19-county-R0/TSHS_CaseCountData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1855F98F-90CE-2449-8FA7-36DED423963B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5994D41D-A9A6-7943-BBD8-E72572DF2966}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-11960" yWindow="-22220" windowWidth="52400" windowHeight="18380" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
   </bookViews>
@@ -468,11 +468,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DE25F0-E558-784A-AF10-BC9084C29ADA}">
-  <dimension ref="A1:ED17"/>
+  <dimension ref="A1:EG17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="EC17" sqref="EC17:EC18"/>
+      <pane xSplit="1" topLeftCell="DJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="EJ3" sqref="EJ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -481,7 +481,7 @@
     <col min="2" max="17" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:134" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -884,8 +884,17 @@
       <c r="ED1" s="1">
         <v>44207</v>
       </c>
+      <c r="EE1" s="1">
+        <v>44208</v>
+      </c>
+      <c r="EF1" s="1">
+        <v>44209</v>
+      </c>
+      <c r="EG1" s="1">
+        <v>44210</v>
+      </c>
     </row>
-    <row r="2" spans="1:134" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1288,8 +1297,17 @@
       <c r="ED2">
         <v>19</v>
       </c>
+      <c r="EE2">
+        <v>18</v>
+      </c>
+      <c r="EF2">
+        <v>30</v>
+      </c>
+      <c r="EG2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:134" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1693,8 +1711,17 @@
       <c r="ED3">
         <v>244</v>
       </c>
+      <c r="EE3">
+        <v>221</v>
+      </c>
+      <c r="EF3">
+        <v>146</v>
+      </c>
+      <c r="EG3">
+        <v>222</v>
+      </c>
     </row>
-    <row r="4" spans="1:134" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2097,8 +2124,17 @@
       <c r="ED4">
         <v>0</v>
       </c>
+      <c r="EE4">
+        <v>43</v>
+      </c>
+      <c r="EF4">
+        <v>0</v>
+      </c>
+      <c r="EG4">
+        <v>181</v>
+      </c>
     </row>
-    <row r="5" spans="1:134" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2501,8 +2537,17 @@
       <c r="ED5">
         <v>0</v>
       </c>
+      <c r="EE5">
+        <v>376</v>
+      </c>
+      <c r="EF5">
+        <v>964</v>
+      </c>
+      <c r="EG5">
+        <v>347</v>
+      </c>
     </row>
-    <row r="6" spans="1:134" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2905,8 +2950,17 @@
       <c r="ED6">
         <v>0</v>
       </c>
+      <c r="EE6">
+        <v>508</v>
+      </c>
+      <c r="EF6">
+        <v>235</v>
+      </c>
+      <c r="EG6">
+        <v>218</v>
+      </c>
     </row>
-    <row r="7" spans="1:134" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3310,8 +3364,17 @@
       <c r="ED7">
         <v>2579</v>
       </c>
+      <c r="EE7">
+        <v>3619</v>
+      </c>
+      <c r="EF7">
+        <v>1157</v>
+      </c>
+      <c r="EG7">
+        <v>1341</v>
+      </c>
     </row>
-    <row r="8" spans="1:134" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3715,8 +3778,17 @@
       <c r="ED8">
         <v>57</v>
       </c>
+      <c r="EE8">
+        <v>32</v>
+      </c>
+      <c r="EF8">
+        <v>72</v>
+      </c>
+      <c r="EG8">
+        <v>24</v>
+      </c>
     </row>
-    <row r="9" spans="1:134" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4120,8 +4192,17 @@
       <c r="ED9">
         <v>0</v>
       </c>
+      <c r="EE9">
+        <v>990</v>
+      </c>
+      <c r="EF9">
+        <v>587</v>
+      </c>
+      <c r="EG9">
+        <v>187</v>
+      </c>
     </row>
-    <row r="10" spans="1:134" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4524,8 +4605,17 @@
       <c r="ED10">
         <v>33</v>
       </c>
+      <c r="EE10">
+        <v>33</v>
+      </c>
+      <c r="EF10">
+        <v>36</v>
+      </c>
+      <c r="EG10">
+        <v>17</v>
+      </c>
     </row>
-    <row r="11" spans="1:134" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4682,7 +4772,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="13" spans="1:134" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4690,7 +4780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:134" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:137" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>

--- a/TSHS_CaseCountData/DSHS New County Data.xlsx
+++ b/TSHS_CaseCountData/DSHS New County Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yipenggao/Documents/Amos_lab/covid-19-county-R0/TSHS_CaseCountData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5994D41D-A9A6-7943-BBD8-E72572DF2966}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6467BE05-2296-3C46-97D9-85890740554C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-11960" yWindow="-22220" windowWidth="52400" windowHeight="18380" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
   </bookViews>
@@ -468,11 +468,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DE25F0-E558-784A-AF10-BC9084C29ADA}">
-  <dimension ref="A1:EG17"/>
+  <dimension ref="A1:EK17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
       <pane xSplit="1" topLeftCell="DJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="EJ3" sqref="EJ3"/>
+      <selection pane="topRight" activeCell="EK17" sqref="EK17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -481,7 +481,7 @@
     <col min="2" max="17" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:137" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:141" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -893,8 +893,20 @@
       <c r="EG1" s="1">
         <v>44210</v>
       </c>
+      <c r="EH1" s="1">
+        <v>44211</v>
+      </c>
+      <c r="EI1" s="1">
+        <v>44212</v>
+      </c>
+      <c r="EJ1" s="1">
+        <v>44213</v>
+      </c>
+      <c r="EK1" s="1">
+        <v>44214</v>
+      </c>
     </row>
-    <row r="2" spans="1:137" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1306,8 +1318,20 @@
       <c r="EG2">
         <v>9</v>
       </c>
+      <c r="EH2">
+        <v>18</v>
+      </c>
+      <c r="EI2">
+        <v>9</v>
+      </c>
+      <c r="EJ2">
+        <v>17</v>
+      </c>
+      <c r="EK2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:137" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1720,8 +1744,20 @@
       <c r="EG3">
         <v>222</v>
       </c>
+      <c r="EH3">
+        <v>246</v>
+      </c>
+      <c r="EI3">
+        <v>247</v>
+      </c>
+      <c r="EJ3">
+        <v>154</v>
+      </c>
+      <c r="EK3">
+        <v>158</v>
+      </c>
     </row>
-    <row r="4" spans="1:137" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2133,8 +2169,20 @@
       <c r="EG4">
         <v>181</v>
       </c>
+      <c r="EH4">
+        <v>40</v>
+      </c>
+      <c r="EI4">
+        <v>45</v>
+      </c>
+      <c r="EJ4">
+        <v>0</v>
+      </c>
+      <c r="EK4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:137" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2546,8 +2594,20 @@
       <c r="EG5">
         <v>347</v>
       </c>
+      <c r="EH5">
+        <v>859</v>
+      </c>
+      <c r="EI5">
+        <v>789</v>
+      </c>
+      <c r="EJ5">
+        <v>0</v>
+      </c>
+      <c r="EK5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:137" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2959,8 +3019,20 @@
       <c r="EG6">
         <v>218</v>
       </c>
+      <c r="EH6">
+        <v>206</v>
+      </c>
+      <c r="EI6">
+        <v>200</v>
+      </c>
+      <c r="EJ6">
+        <v>225</v>
+      </c>
+      <c r="EK6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:137" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3373,8 +3445,20 @@
       <c r="EG7">
         <v>1341</v>
       </c>
+      <c r="EH7">
+        <v>5614</v>
+      </c>
+      <c r="EI7">
+        <v>3125</v>
+      </c>
+      <c r="EJ7">
+        <v>2842</v>
+      </c>
+      <c r="EK7">
+        <v>3276</v>
+      </c>
     </row>
-    <row r="8" spans="1:137" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3787,8 +3871,20 @@
       <c r="EG8">
         <v>24</v>
       </c>
+      <c r="EH8">
+        <v>26</v>
+      </c>
+      <c r="EI8">
+        <v>41</v>
+      </c>
+      <c r="EJ8">
+        <v>39</v>
+      </c>
+      <c r="EK8">
+        <v>31</v>
+      </c>
     </row>
-    <row r="9" spans="1:137" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4201,8 +4297,20 @@
       <c r="EG9">
         <v>187</v>
       </c>
+      <c r="EH9">
+        <v>326</v>
+      </c>
+      <c r="EI9">
+        <v>285</v>
+      </c>
+      <c r="EJ9">
+        <v>0</v>
+      </c>
+      <c r="EK9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:137" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4614,8 +4722,20 @@
       <c r="EG10">
         <v>17</v>
       </c>
+      <c r="EH10">
+        <v>33</v>
+      </c>
+      <c r="EI10">
+        <v>25</v>
+      </c>
+      <c r="EJ10">
+        <v>20</v>
+      </c>
+      <c r="EK10">
+        <v>36</v>
+      </c>
     </row>
-    <row r="11" spans="1:137" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4772,7 +4892,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="13" spans="1:137" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4780,7 +4900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:137" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>

--- a/TSHS_CaseCountData/DSHS New County Data.xlsx
+++ b/TSHS_CaseCountData/DSHS New County Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yipenggao/Documents/Amos_lab/covid-19-county-R0/TSHS_CaseCountData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6467BE05-2296-3C46-97D9-85890740554C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC5ECC1-1FE6-344B-B2E5-F82181C4C33E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11960" yWindow="-22220" windowWidth="52400" windowHeight="18380" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="28060" windowHeight="16440" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
   </bookViews>
   <sheets>
     <sheet name="County Dashboard" sheetId="1" r:id="rId1"/>
@@ -468,11 +468,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DE25F0-E558-784A-AF10-BC9084C29ADA}">
-  <dimension ref="A1:EK17"/>
+  <dimension ref="A1:ER17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="EK17" sqref="EK17"/>
+      <pane xSplit="1" topLeftCell="EI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="ET7" sqref="ET7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -481,7 +481,7 @@
     <col min="2" max="17" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:141" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:148" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -905,8 +905,29 @@
       <c r="EK1" s="1">
         <v>44214</v>
       </c>
+      <c r="EL1" s="1">
+        <v>44215</v>
+      </c>
+      <c r="EM1" s="1">
+        <v>44216</v>
+      </c>
+      <c r="EN1" s="1">
+        <v>44217</v>
+      </c>
+      <c r="EO1" s="1">
+        <v>44218</v>
+      </c>
+      <c r="EP1" s="1">
+        <v>44219</v>
+      </c>
+      <c r="EQ1" s="1">
+        <v>44220</v>
+      </c>
+      <c r="ER1" s="1">
+        <v>44221</v>
+      </c>
     </row>
-    <row r="2" spans="1:141" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1330,8 +1351,29 @@
       <c r="EK2">
         <v>15</v>
       </c>
+      <c r="EL2">
+        <v>19</v>
+      </c>
+      <c r="EM2">
+        <v>27</v>
+      </c>
+      <c r="EN2">
+        <v>0</v>
+      </c>
+      <c r="EO2">
+        <v>5</v>
+      </c>
+      <c r="EP2">
+        <v>12</v>
+      </c>
+      <c r="EQ2">
+        <v>18</v>
+      </c>
+      <c r="ER2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:141" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1756,8 +1798,29 @@
       <c r="EK3">
         <v>158</v>
       </c>
+      <c r="EL3">
+        <v>101</v>
+      </c>
+      <c r="EM3">
+        <v>88</v>
+      </c>
+      <c r="EN3">
+        <v>140</v>
+      </c>
+      <c r="EO3">
+        <v>127</v>
+      </c>
+      <c r="EP3">
+        <v>208</v>
+      </c>
+      <c r="EQ3">
+        <v>194</v>
+      </c>
+      <c r="ER3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:141" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2181,8 +2244,29 @@
       <c r="EK4">
         <v>0</v>
       </c>
+      <c r="EL4">
+        <v>0</v>
+      </c>
+      <c r="EM4">
+        <v>42</v>
+      </c>
+      <c r="EN4">
+        <v>0</v>
+      </c>
+      <c r="EO4">
+        <v>106</v>
+      </c>
+      <c r="EP4">
+        <v>47</v>
+      </c>
+      <c r="EQ4">
+        <v>0</v>
+      </c>
+      <c r="ER4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:141" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2606,8 +2690,29 @@
       <c r="EK5">
         <v>0</v>
       </c>
+      <c r="EL5">
+        <v>405</v>
+      </c>
+      <c r="EM5">
+        <v>1313</v>
+      </c>
+      <c r="EN5">
+        <v>765</v>
+      </c>
+      <c r="EO5">
+        <v>112</v>
+      </c>
+      <c r="EP5">
+        <v>265</v>
+      </c>
+      <c r="EQ5">
+        <v>0</v>
+      </c>
+      <c r="ER5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:141" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3031,8 +3136,29 @@
       <c r="EK6">
         <v>0</v>
       </c>
+      <c r="EL6">
+        <v>0</v>
+      </c>
+      <c r="EM6">
+        <v>669</v>
+      </c>
+      <c r="EN6">
+        <v>104</v>
+      </c>
+      <c r="EO6">
+        <v>301</v>
+      </c>
+      <c r="EP6">
+        <v>231</v>
+      </c>
+      <c r="EQ6">
+        <v>202</v>
+      </c>
+      <c r="ER6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:141" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3457,8 +3583,29 @@
       <c r="EK7">
         <v>3276</v>
       </c>
+      <c r="EL7">
+        <v>1417</v>
+      </c>
+      <c r="EM7">
+        <v>1202</v>
+      </c>
+      <c r="EN7">
+        <v>2263</v>
+      </c>
+      <c r="EO7">
+        <v>2912</v>
+      </c>
+      <c r="EP7">
+        <v>803</v>
+      </c>
+      <c r="EQ7">
+        <v>1884</v>
+      </c>
+      <c r="ER7">
+        <v>931</v>
+      </c>
     </row>
-    <row r="8" spans="1:141" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3883,8 +4030,29 @@
       <c r="EK8">
         <v>31</v>
       </c>
+      <c r="EL8">
+        <v>37</v>
+      </c>
+      <c r="EM8">
+        <v>30</v>
+      </c>
+      <c r="EN8">
+        <v>165</v>
+      </c>
+      <c r="EO8">
+        <v>33</v>
+      </c>
+      <c r="EP8">
+        <v>48</v>
+      </c>
+      <c r="EQ8">
+        <v>17</v>
+      </c>
+      <c r="ER8">
+        <v>22</v>
+      </c>
     </row>
-    <row r="9" spans="1:141" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4309,8 +4477,29 @@
       <c r="EK9">
         <v>0</v>
       </c>
+      <c r="EL9">
+        <v>0</v>
+      </c>
+      <c r="EM9">
+        <v>1171</v>
+      </c>
+      <c r="EN9">
+        <v>201</v>
+      </c>
+      <c r="EO9">
+        <v>292</v>
+      </c>
+      <c r="EP9">
+        <v>0</v>
+      </c>
+      <c r="EQ9">
+        <v>0</v>
+      </c>
+      <c r="ER9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:141" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4734,8 +4923,29 @@
       <c r="EK10">
         <v>36</v>
       </c>
+      <c r="EL10">
+        <v>29</v>
+      </c>
+      <c r="EM10">
+        <v>30</v>
+      </c>
+      <c r="EN10">
+        <v>6</v>
+      </c>
+      <c r="EO10">
+        <v>24</v>
+      </c>
+      <c r="EP10">
+        <v>24</v>
+      </c>
+      <c r="EQ10">
+        <v>35</v>
+      </c>
+      <c r="ER10">
+        <v>12</v>
+      </c>
     </row>
-    <row r="11" spans="1:141" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4892,7 +5102,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="13" spans="1:141" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4900,7 +5110,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:141" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>

--- a/TSHS_CaseCountData/DSHS New County Data.xlsx
+++ b/TSHS_CaseCountData/DSHS New County Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yipenggao/Documents/Amos_lab/covid-19-county-R0/TSHS_CaseCountData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC5ECC1-1FE6-344B-B2E5-F82181C4C33E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF407C3-31E3-6D4F-BF83-E0E33CF4F929}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="28060" windowHeight="16440" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
+    <workbookView xWindow="7240" yWindow="-21320" windowWidth="28060" windowHeight="16440" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
   </bookViews>
   <sheets>
     <sheet name="County Dashboard" sheetId="1" r:id="rId1"/>
@@ -468,11 +468,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DE25F0-E558-784A-AF10-BC9084C29ADA}">
-  <dimension ref="A1:ER17"/>
+  <dimension ref="A1:EU17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
       <pane xSplit="1" topLeftCell="EI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="ET7" sqref="ET7"/>
+      <selection pane="topRight" activeCell="EU18" sqref="EU18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -481,7 +481,7 @@
     <col min="2" max="17" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:148" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:151" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -926,8 +926,17 @@
       <c r="ER1" s="1">
         <v>44221</v>
       </c>
+      <c r="ES1" s="1">
+        <v>44222</v>
+      </c>
+      <c r="ET1" s="1">
+        <v>44223</v>
+      </c>
+      <c r="EU1" s="1">
+        <v>44224</v>
+      </c>
     </row>
-    <row r="2" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1372,8 +1381,17 @@
       <c r="ER2">
         <v>0</v>
       </c>
+      <c r="ES2">
+        <v>12</v>
+      </c>
+      <c r="ET2">
+        <v>0</v>
+      </c>
+      <c r="EU2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1819,8 +1837,17 @@
       <c r="ER3">
         <v>0</v>
       </c>
+      <c r="ES3">
+        <v>333</v>
+      </c>
+      <c r="ET3">
+        <v>82</v>
+      </c>
+      <c r="EU3">
+        <v>78</v>
+      </c>
     </row>
-    <row r="4" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2265,8 +2292,17 @@
       <c r="ER4">
         <v>0</v>
       </c>
+      <c r="ES4">
+        <v>28</v>
+      </c>
+      <c r="ET4">
+        <v>67</v>
+      </c>
+      <c r="EU4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2711,8 +2747,17 @@
       <c r="ER5">
         <v>0</v>
       </c>
+      <c r="ES5">
+        <v>406</v>
+      </c>
+      <c r="ET5">
+        <v>888</v>
+      </c>
+      <c r="EU5">
+        <v>351</v>
+      </c>
     </row>
-    <row r="6" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3157,8 +3202,17 @@
       <c r="ER6">
         <v>0</v>
       </c>
+      <c r="ES6">
+        <v>348</v>
+      </c>
+      <c r="ET6">
+        <v>165</v>
+      </c>
+      <c r="EU6">
+        <v>152</v>
+      </c>
     </row>
-    <row r="7" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3604,8 +3658,17 @@
       <c r="ER7">
         <v>931</v>
       </c>
+      <c r="ES7">
+        <v>3186</v>
+      </c>
+      <c r="ET7">
+        <v>2936</v>
+      </c>
+      <c r="EU7">
+        <v>1874</v>
+      </c>
     </row>
-    <row r="8" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4051,8 +4114,17 @@
       <c r="ER8">
         <v>22</v>
       </c>
+      <c r="ES8">
+        <v>56</v>
+      </c>
+      <c r="ET8">
+        <v>26</v>
+      </c>
+      <c r="EU8">
+        <v>42</v>
+      </c>
     </row>
-    <row r="9" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4498,8 +4570,17 @@
       <c r="ER9">
         <v>0</v>
       </c>
+      <c r="ES9">
+        <v>2137</v>
+      </c>
+      <c r="ET9">
+        <v>102</v>
+      </c>
+      <c r="EU9">
+        <v>416</v>
+      </c>
     </row>
-    <row r="10" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4944,8 +5025,17 @@
       <c r="ER10">
         <v>12</v>
       </c>
+      <c r="ES10">
+        <v>37</v>
+      </c>
+      <c r="ET10">
+        <v>14</v>
+      </c>
+      <c r="EU10">
+        <v>29</v>
+      </c>
     </row>
-    <row r="11" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5102,7 +5192,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="13" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -5110,7 +5200,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>

--- a/TSHS_CaseCountData/DSHS New County Data.xlsx
+++ b/TSHS_CaseCountData/DSHS New County Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yipenggao/Documents/Amos_lab/covid-19-county-R0/TSHS_CaseCountData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF407C3-31E3-6D4F-BF83-E0E33CF4F929}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47BAC18-FC0F-B94D-B3F4-05E286F00F61}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7240" yWindow="-21320" windowWidth="28060" windowHeight="16440" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
+    <workbookView xWindow="-16480" yWindow="-17400" windowWidth="37740" windowHeight="17400" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
   </bookViews>
   <sheets>
     <sheet name="County Dashboard" sheetId="1" r:id="rId1"/>
@@ -468,11 +468,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DE25F0-E558-784A-AF10-BC9084C29ADA}">
-  <dimension ref="A1:EU17"/>
+  <dimension ref="A1:EY17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
       <pane xSplit="1" topLeftCell="EI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="EU18" sqref="EU18"/>
+      <selection pane="topRight" activeCell="FA11" sqref="FA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -481,7 +481,7 @@
     <col min="2" max="17" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:151" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:155" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -935,8 +935,18 @@
       <c r="EU1" s="1">
         <v>44224</v>
       </c>
+      <c r="EV1" s="1">
+        <v>44225</v>
+      </c>
+      <c r="EW1" s="1">
+        <v>44226</v>
+      </c>
+      <c r="EX1" s="1">
+        <v>44227</v>
+      </c>
+      <c r="EY1" s="1"/>
     </row>
-    <row r="2" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1390,8 +1400,17 @@
       <c r="EU2">
         <v>6</v>
       </c>
+      <c r="EV2">
+        <v>9</v>
+      </c>
+      <c r="EW2">
+        <v>15</v>
+      </c>
+      <c r="EX2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1846,8 +1865,17 @@
       <c r="EU3">
         <v>78</v>
       </c>
+      <c r="EV3">
+        <v>182</v>
+      </c>
+      <c r="EW3">
+        <v>191</v>
+      </c>
+      <c r="EX3">
+        <v>118</v>
+      </c>
     </row>
-    <row r="4" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2301,8 +2329,17 @@
       <c r="EU4">
         <v>0</v>
       </c>
+      <c r="EV4">
+        <v>0</v>
+      </c>
+      <c r="EW4">
+        <v>0</v>
+      </c>
+      <c r="EX4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2756,8 +2793,17 @@
       <c r="EU5">
         <v>351</v>
       </c>
+      <c r="EV5">
+        <v>448</v>
+      </c>
+      <c r="EW5">
+        <v>463</v>
+      </c>
+      <c r="EX5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3211,8 +3257,17 @@
       <c r="EU6">
         <v>152</v>
       </c>
+      <c r="EV6">
+        <v>186</v>
+      </c>
+      <c r="EW6">
+        <v>243</v>
+      </c>
+      <c r="EX6">
+        <v>153</v>
+      </c>
     </row>
-    <row r="7" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3667,8 +3722,17 @@
       <c r="EU7">
         <v>1874</v>
       </c>
+      <c r="EV7">
+        <v>2130</v>
+      </c>
+      <c r="EW7">
+        <v>2314</v>
+      </c>
+      <c r="EX7">
+        <v>2756</v>
+      </c>
     </row>
-    <row r="8" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4123,8 +4187,17 @@
       <c r="EU8">
         <v>42</v>
       </c>
+      <c r="EV8">
+        <v>32</v>
+      </c>
+      <c r="EW8">
+        <v>27</v>
+      </c>
+      <c r="EX8">
+        <v>32</v>
+      </c>
     </row>
-    <row r="9" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4579,8 +4652,17 @@
       <c r="EU9">
         <v>416</v>
       </c>
+      <c r="EV9">
+        <v>226</v>
+      </c>
+      <c r="EW9">
+        <v>223</v>
+      </c>
+      <c r="EX9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5034,8 +5116,17 @@
       <c r="EU10">
         <v>29</v>
       </c>
+      <c r="EV10">
+        <v>18</v>
+      </c>
+      <c r="EW10">
+        <v>28</v>
+      </c>
+      <c r="EX10">
+        <v>22</v>
+      </c>
     </row>
-    <row r="11" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5192,7 +5283,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="13" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -5200,7 +5291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:151" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:155" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>

--- a/TSHS_CaseCountData/DSHS New County Data.xlsx
+++ b/TSHS_CaseCountData/DSHS New County Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yipenggao/Documents/Amos_lab/covid-19-county-R0/TSHS_CaseCountData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47BAC18-FC0F-B94D-B3F4-05E286F00F61}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B63AB6-14AD-3346-8B0D-850AC9E6F041}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16480" yWindow="-17400" windowWidth="37740" windowHeight="17400" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
+    <workbookView xWindow="140" yWindow="7740" windowWidth="40520" windowHeight="19720" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
   </bookViews>
   <sheets>
     <sheet name="County Dashboard" sheetId="1" r:id="rId1"/>
@@ -468,11 +468,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DE25F0-E558-784A-AF10-BC9084C29ADA}">
-  <dimension ref="A1:EY17"/>
+  <dimension ref="A1:FB17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
       <pane xSplit="1" topLeftCell="EI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="FA11" sqref="FA11"/>
+      <selection pane="topRight" activeCell="FC8" sqref="FC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -481,7 +481,7 @@
     <col min="2" max="17" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:155" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:158" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -944,9 +944,20 @@
       <c r="EX1" s="1">
         <v>44227</v>
       </c>
-      <c r="EY1" s="1"/>
+      <c r="EY1" s="1">
+        <v>44228</v>
+      </c>
+      <c r="EZ1" s="1">
+        <v>44229</v>
+      </c>
+      <c r="FA1" s="1">
+        <v>44230</v>
+      </c>
+      <c r="FB1" s="1">
+        <v>44231</v>
+      </c>
     </row>
-    <row r="2" spans="1:155" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:158" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1409,8 +1420,20 @@
       <c r="EX2">
         <v>14</v>
       </c>
+      <c r="EY2">
+        <v>0</v>
+      </c>
+      <c r="EZ2">
+        <v>24</v>
+      </c>
+      <c r="FA2">
+        <v>7</v>
+      </c>
+      <c r="FB2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:155" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:158" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1874,8 +1897,20 @@
       <c r="EX3">
         <v>118</v>
       </c>
+      <c r="EY3">
+        <v>21</v>
+      </c>
+      <c r="EZ3">
+        <v>185</v>
+      </c>
+      <c r="FA3">
+        <v>163</v>
+      </c>
+      <c r="FB3">
+        <v>161</v>
+      </c>
     </row>
-    <row r="4" spans="1:155" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:158" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2338,8 +2373,20 @@
       <c r="EX4">
         <v>0</v>
       </c>
+      <c r="EY4">
+        <v>0</v>
+      </c>
+      <c r="EZ4">
+        <v>0</v>
+      </c>
+      <c r="FA4">
+        <v>163</v>
+      </c>
+      <c r="FB4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:155" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:158" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2802,8 +2849,20 @@
       <c r="EX5">
         <v>0</v>
       </c>
+      <c r="EY5">
+        <v>0</v>
+      </c>
+      <c r="EZ5">
+        <v>376</v>
+      </c>
+      <c r="FA5">
+        <v>1027</v>
+      </c>
+      <c r="FB5">
+        <v>315</v>
+      </c>
     </row>
-    <row r="6" spans="1:155" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:158" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3266,8 +3325,20 @@
       <c r="EX6">
         <v>153</v>
       </c>
+      <c r="EY6">
+        <v>0</v>
+      </c>
+      <c r="EZ6">
+        <v>308</v>
+      </c>
+      <c r="FA6">
+        <v>174</v>
+      </c>
+      <c r="FB6">
+        <v>136</v>
+      </c>
     </row>
-    <row r="7" spans="1:155" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:158" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3731,8 +3802,20 @@
       <c r="EX7">
         <v>2756</v>
       </c>
+      <c r="EY7">
+        <v>2683</v>
+      </c>
+      <c r="EZ7">
+        <v>1921</v>
+      </c>
+      <c r="FA7">
+        <v>846</v>
+      </c>
+      <c r="FB7">
+        <v>2565</v>
+      </c>
     </row>
-    <row r="8" spans="1:155" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:158" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4196,8 +4279,20 @@
       <c r="EX8">
         <v>32</v>
       </c>
+      <c r="EY8">
+        <v>6</v>
+      </c>
+      <c r="EZ8">
+        <v>91</v>
+      </c>
+      <c r="FA8">
+        <v>31</v>
+      </c>
+      <c r="FB8">
+        <v>28</v>
+      </c>
     </row>
-    <row r="9" spans="1:155" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:158" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4661,8 +4756,20 @@
       <c r="EX9">
         <v>0</v>
       </c>
+      <c r="EY9">
+        <v>0</v>
+      </c>
+      <c r="EZ9">
+        <v>697</v>
+      </c>
+      <c r="FA9">
+        <v>215</v>
+      </c>
+      <c r="FB9">
+        <v>130</v>
+      </c>
     </row>
-    <row r="10" spans="1:155" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:158" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5125,8 +5232,20 @@
       <c r="EX10">
         <v>22</v>
       </c>
+      <c r="EY10">
+        <v>2</v>
+      </c>
+      <c r="EZ10">
+        <v>53</v>
+      </c>
+      <c r="FA10">
+        <v>16</v>
+      </c>
+      <c r="FB10">
+        <v>10</v>
+      </c>
     </row>
-    <row r="11" spans="1:155" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:158" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5283,7 +5402,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="13" spans="1:155" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:158" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -5291,7 +5410,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:155" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:158" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>

--- a/TSHS_CaseCountData/DSHS New County Data.xlsx
+++ b/TSHS_CaseCountData/DSHS New County Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yipenggao/Documents/Amos_lab/covid-19-county-R0/TSHS_CaseCountData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yipenggao/Dropbox/Amos_Lab/covid-19-county-R0/TSHS_CaseCountData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B63AB6-14AD-3346-8B0D-850AC9E6F041}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7554DDCD-ABE4-B341-B035-CADD2B010FF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="7740" windowWidth="40520" windowHeight="19720" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
+    <workbookView xWindow="0" yWindow="7740" windowWidth="21600" windowHeight="19720" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
   </bookViews>
   <sheets>
     <sheet name="County Dashboard" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -468,11 +471,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DE25F0-E558-784A-AF10-BC9084C29ADA}">
-  <dimension ref="A1:FB17"/>
+  <dimension ref="A1:FI17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="EI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="FC8" sqref="FC8"/>
+      <pane xSplit="1" topLeftCell="FA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="FB1" sqref="FB1:FI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -481,7 +484,7 @@
     <col min="2" max="17" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:158" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:165" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -956,8 +959,29 @@
       <c r="FB1" s="1">
         <v>44231</v>
       </c>
+      <c r="FC1" s="1">
+        <v>44232</v>
+      </c>
+      <c r="FD1" s="1">
+        <v>44233</v>
+      </c>
+      <c r="FE1" s="1">
+        <v>44234</v>
+      </c>
+      <c r="FF1" s="1">
+        <v>44235</v>
+      </c>
+      <c r="FG1" s="1">
+        <v>44236</v>
+      </c>
+      <c r="FH1" s="1">
+        <v>44237</v>
+      </c>
+      <c r="FI1" s="1">
+        <v>44238</v>
+      </c>
     </row>
-    <row r="2" spans="1:158" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1432,8 +1456,29 @@
       <c r="FB2">
         <v>4</v>
       </c>
+      <c r="FC2">
+        <v>5</v>
+      </c>
+      <c r="FD2">
+        <v>17</v>
+      </c>
+      <c r="FE2">
+        <v>3</v>
+      </c>
+      <c r="FF2">
+        <v>6</v>
+      </c>
+      <c r="FG2">
+        <v>0</v>
+      </c>
+      <c r="FH2">
+        <v>13</v>
+      </c>
+      <c r="FI2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:158" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1909,8 +1954,29 @@
       <c r="FB3">
         <v>161</v>
       </c>
+      <c r="FC3">
+        <v>145</v>
+      </c>
+      <c r="FD3">
+        <v>87</v>
+      </c>
+      <c r="FE3">
+        <v>105</v>
+      </c>
+      <c r="FF3">
+        <v>101</v>
+      </c>
+      <c r="FG3">
+        <v>22</v>
+      </c>
+      <c r="FH3">
+        <v>137</v>
+      </c>
+      <c r="FI3">
+        <v>73</v>
+      </c>
     </row>
-    <row r="4" spans="1:158" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2385,8 +2451,29 @@
       <c r="FB4">
         <v>0</v>
       </c>
+      <c r="FC4">
+        <v>0</v>
+      </c>
+      <c r="FD4">
+        <v>0</v>
+      </c>
+      <c r="FE4">
+        <v>0</v>
+      </c>
+      <c r="FF4">
+        <v>0</v>
+      </c>
+      <c r="FG4">
+        <v>0</v>
+      </c>
+      <c r="FH4">
+        <v>0</v>
+      </c>
+      <c r="FI4">
+        <v>169</v>
+      </c>
     </row>
-    <row r="5" spans="1:158" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2861,8 +2948,29 @@
       <c r="FB5">
         <v>315</v>
       </c>
+      <c r="FC5">
+        <v>286</v>
+      </c>
+      <c r="FD5">
+        <v>326</v>
+      </c>
+      <c r="FE5">
+        <v>0</v>
+      </c>
+      <c r="FF5">
+        <v>0</v>
+      </c>
+      <c r="FG5">
+        <v>301</v>
+      </c>
+      <c r="FH5">
+        <v>508</v>
+      </c>
+      <c r="FI5">
+        <v>379</v>
+      </c>
     </row>
-    <row r="6" spans="1:158" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3337,8 +3445,29 @@
       <c r="FB6">
         <v>136</v>
       </c>
+      <c r="FC6">
+        <v>138</v>
+      </c>
+      <c r="FD6">
+        <v>126</v>
+      </c>
+      <c r="FE6">
+        <v>143</v>
+      </c>
+      <c r="FF6">
+        <v>0</v>
+      </c>
+      <c r="FG6">
+        <v>193</v>
+      </c>
+      <c r="FH6">
+        <v>114</v>
+      </c>
+      <c r="FI6">
+        <v>122</v>
+      </c>
     </row>
-    <row r="7" spans="1:158" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3814,8 +3943,29 @@
       <c r="FB7">
         <v>2565</v>
       </c>
+      <c r="FC7">
+        <v>1435</v>
+      </c>
+      <c r="FD7">
+        <v>1135</v>
+      </c>
+      <c r="FE7">
+        <v>783</v>
+      </c>
+      <c r="FF7">
+        <v>1182</v>
+      </c>
+      <c r="FG7">
+        <v>590</v>
+      </c>
+      <c r="FH7">
+        <v>318</v>
+      </c>
+      <c r="FI7">
+        <v>283</v>
+      </c>
     </row>
-    <row r="8" spans="1:158" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4291,8 +4441,29 @@
       <c r="FB8">
         <v>28</v>
       </c>
+      <c r="FC8">
+        <v>33</v>
+      </c>
+      <c r="FD8">
+        <v>36</v>
+      </c>
+      <c r="FE8">
+        <v>21</v>
+      </c>
+      <c r="FF8">
+        <v>25</v>
+      </c>
+      <c r="FG8">
+        <v>47</v>
+      </c>
+      <c r="FH8">
+        <v>22</v>
+      </c>
+      <c r="FI8">
+        <v>13</v>
+      </c>
     </row>
-    <row r="9" spans="1:158" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4768,8 +4939,29 @@
       <c r="FB9">
         <v>130</v>
       </c>
+      <c r="FC9">
+        <v>205</v>
+      </c>
+      <c r="FD9">
+        <v>194</v>
+      </c>
+      <c r="FE9">
+        <v>0</v>
+      </c>
+      <c r="FF9">
+        <v>0</v>
+      </c>
+      <c r="FG9">
+        <v>370</v>
+      </c>
+      <c r="FH9">
+        <v>327</v>
+      </c>
+      <c r="FI9">
+        <v>48</v>
+      </c>
     </row>
-    <row r="10" spans="1:158" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5244,8 +5436,29 @@
       <c r="FB10">
         <v>10</v>
       </c>
+      <c r="FC10">
+        <v>24</v>
+      </c>
+      <c r="FD10">
+        <v>25</v>
+      </c>
+      <c r="FE10">
+        <v>13</v>
+      </c>
+      <c r="FF10">
+        <v>8</v>
+      </c>
+      <c r="FG10">
+        <v>3</v>
+      </c>
+      <c r="FH10">
+        <v>25</v>
+      </c>
+      <c r="FI10">
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" spans="1:158" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5402,7 +5615,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="13" spans="1:158" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -5410,7 +5623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:158" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>

--- a/TSHS_CaseCountData/DSHS New County Data.xlsx
+++ b/TSHS_CaseCountData/DSHS New County Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yipenggao/Dropbox/Amos_Lab/covid-19-county-R0/TSHS_CaseCountData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7554DDCD-ABE4-B341-B035-CADD2B010FF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E803941B-DB41-9B43-8B3E-CB49C066C50E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7740" windowWidth="21600" windowHeight="19720" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
+    <workbookView xWindow="-47120" yWindow="9520" windowWidth="41960" windowHeight="23280" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
   </bookViews>
   <sheets>
     <sheet name="County Dashboard" sheetId="1" r:id="rId1"/>
@@ -471,11 +471,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DE25F0-E558-784A-AF10-BC9084C29ADA}">
-  <dimension ref="A1:FI17"/>
+  <dimension ref="A1:FS17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
       <pane xSplit="1" topLeftCell="FA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="FB1" sqref="FB1:FI1"/>
+      <selection pane="topRight" activeCell="FI1" sqref="FI1:FS1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -484,7 +484,7 @@
     <col min="2" max="17" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:165" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:175" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -980,8 +980,38 @@
       <c r="FI1" s="1">
         <v>44238</v>
       </c>
+      <c r="FJ1" s="1">
+        <v>44239</v>
+      </c>
+      <c r="FK1" s="1">
+        <v>44240</v>
+      </c>
+      <c r="FL1" s="1">
+        <v>44241</v>
+      </c>
+      <c r="FM1" s="1">
+        <v>44242</v>
+      </c>
+      <c r="FN1" s="1">
+        <v>44243</v>
+      </c>
+      <c r="FO1" s="1">
+        <v>44244</v>
+      </c>
+      <c r="FP1" s="1">
+        <v>44245</v>
+      </c>
+      <c r="FQ1" s="1">
+        <v>44246</v>
+      </c>
+      <c r="FR1" s="1">
+        <v>44247</v>
+      </c>
+      <c r="FS1" s="1">
+        <v>44248</v>
+      </c>
     </row>
-    <row r="2" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:175" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1477,8 +1507,38 @@
       <c r="FI2">
         <v>1</v>
       </c>
+      <c r="FJ2">
+        <v>6</v>
+      </c>
+      <c r="FK2">
+        <v>8</v>
+      </c>
+      <c r="FL2">
+        <v>5</v>
+      </c>
+      <c r="FM2">
+        <v>6</v>
+      </c>
+      <c r="FN2">
+        <v>7</v>
+      </c>
+      <c r="FO2">
+        <v>5</v>
+      </c>
+      <c r="FP2">
+        <v>1</v>
+      </c>
+      <c r="FQ2">
+        <v>0</v>
+      </c>
+      <c r="FR2">
+        <v>4</v>
+      </c>
+      <c r="FS2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:175" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1975,8 +2035,38 @@
       <c r="FI3">
         <v>73</v>
       </c>
+      <c r="FJ3">
+        <v>52</v>
+      </c>
+      <c r="FK3">
+        <v>180</v>
+      </c>
+      <c r="FL3">
+        <v>63</v>
+      </c>
+      <c r="FM3">
+        <v>76</v>
+      </c>
+      <c r="FN3">
+        <v>-18</v>
+      </c>
+      <c r="FO3">
+        <v>-5</v>
+      </c>
+      <c r="FP3">
+        <v>84</v>
+      </c>
+      <c r="FQ3">
+        <v>18</v>
+      </c>
+      <c r="FR3">
+        <v>30</v>
+      </c>
+      <c r="FS3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:175" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2472,8 +2562,38 @@
       <c r="FI4">
         <v>169</v>
       </c>
+      <c r="FJ4">
+        <v>66</v>
+      </c>
+      <c r="FK4">
+        <v>0</v>
+      </c>
+      <c r="FL4">
+        <v>0</v>
+      </c>
+      <c r="FM4">
+        <v>0</v>
+      </c>
+      <c r="FN4">
+        <v>0</v>
+      </c>
+      <c r="FO4">
+        <v>0</v>
+      </c>
+      <c r="FP4">
+        <v>0</v>
+      </c>
+      <c r="FQ4">
+        <v>0</v>
+      </c>
+      <c r="FR4">
+        <v>0</v>
+      </c>
+      <c r="FS4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:175" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2969,8 +3089,38 @@
       <c r="FI5">
         <v>379</v>
       </c>
+      <c r="FJ5">
+        <v>368</v>
+      </c>
+      <c r="FK5">
+        <v>0</v>
+      </c>
+      <c r="FL5">
+        <v>0</v>
+      </c>
+      <c r="FM5">
+        <v>0</v>
+      </c>
+      <c r="FN5">
+        <v>0</v>
+      </c>
+      <c r="FO5">
+        <v>0</v>
+      </c>
+      <c r="FP5">
+        <v>0</v>
+      </c>
+      <c r="FQ5">
+        <v>211</v>
+      </c>
+      <c r="FR5">
+        <v>484</v>
+      </c>
+      <c r="FS5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:175" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3466,8 +3616,38 @@
       <c r="FI6">
         <v>122</v>
       </c>
+      <c r="FJ6">
+        <v>165</v>
+      </c>
+      <c r="FK6">
+        <v>102</v>
+      </c>
+      <c r="FL6">
+        <v>0</v>
+      </c>
+      <c r="FM6">
+        <v>0</v>
+      </c>
+      <c r="FN6">
+        <v>0</v>
+      </c>
+      <c r="FO6">
+        <v>0</v>
+      </c>
+      <c r="FP6">
+        <v>323</v>
+      </c>
+      <c r="FQ6">
+        <v>37</v>
+      </c>
+      <c r="FR6">
+        <v>103</v>
+      </c>
+      <c r="FS6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:175" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3964,8 +4144,38 @@
       <c r="FI7">
         <v>283</v>
       </c>
+      <c r="FJ7">
+        <v>1142</v>
+      </c>
+      <c r="FK7">
+        <v>2121</v>
+      </c>
+      <c r="FL7">
+        <v>891</v>
+      </c>
+      <c r="FM7">
+        <v>1047</v>
+      </c>
+      <c r="FN7">
+        <v>0</v>
+      </c>
+      <c r="FO7">
+        <v>1040</v>
+      </c>
+      <c r="FP7">
+        <v>33</v>
+      </c>
+      <c r="FQ7">
+        <v>1029</v>
+      </c>
+      <c r="FR7">
+        <v>191</v>
+      </c>
+      <c r="FS7">
+        <v>1050</v>
+      </c>
     </row>
-    <row r="8" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:175" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4462,8 +4672,38 @@
       <c r="FI8">
         <v>13</v>
       </c>
+      <c r="FJ8">
+        <v>21</v>
+      </c>
+      <c r="FK8">
+        <v>20</v>
+      </c>
+      <c r="FL8">
+        <v>13</v>
+      </c>
+      <c r="FM8">
+        <v>27</v>
+      </c>
+      <c r="FN8">
+        <v>15</v>
+      </c>
+      <c r="FO8">
+        <v>7</v>
+      </c>
+      <c r="FP8">
+        <v>4</v>
+      </c>
+      <c r="FQ8">
+        <v>5</v>
+      </c>
+      <c r="FR8">
+        <v>2</v>
+      </c>
+      <c r="FS8">
+        <v>4</v>
+      </c>
     </row>
-    <row r="9" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:175" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4960,8 +5200,38 @@
       <c r="FI9">
         <v>48</v>
       </c>
+      <c r="FJ9">
+        <v>190</v>
+      </c>
+      <c r="FK9">
+        <v>0</v>
+      </c>
+      <c r="FL9">
+        <v>0</v>
+      </c>
+      <c r="FM9">
+        <v>0</v>
+      </c>
+      <c r="FN9">
+        <v>0</v>
+      </c>
+      <c r="FO9">
+        <v>0</v>
+      </c>
+      <c r="FP9">
+        <v>0</v>
+      </c>
+      <c r="FQ9">
+        <v>710</v>
+      </c>
+      <c r="FR9">
+        <v>0</v>
+      </c>
+      <c r="FS9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:175" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5457,8 +5727,38 @@
       <c r="FI10">
         <v>2</v>
       </c>
+      <c r="FJ10">
+        <v>16</v>
+      </c>
+      <c r="FK10">
+        <v>8</v>
+      </c>
+      <c r="FL10">
+        <v>14</v>
+      </c>
+      <c r="FM10">
+        <v>18</v>
+      </c>
+      <c r="FN10">
+        <v>10</v>
+      </c>
+      <c r="FO10">
+        <v>11</v>
+      </c>
+      <c r="FP10">
+        <v>2</v>
+      </c>
+      <c r="FQ10">
+        <v>2</v>
+      </c>
+      <c r="FR10">
+        <v>6</v>
+      </c>
+      <c r="FS10">
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:175" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5615,7 +5915,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="13" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:175" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -5623,7 +5923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:165" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:175" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>

--- a/TSHS_CaseCountData/DSHS New County Data.xlsx
+++ b/TSHS_CaseCountData/DSHS New County Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yipenggao/Dropbox/Amos_Lab/covid-19-county-R0/TSHS_CaseCountData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E803941B-DB41-9B43-8B3E-CB49C066C50E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBF5D2A-680A-A648-99AD-988E8D48E88D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-47120" yWindow="9520" windowWidth="41960" windowHeight="23280" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
+    <workbookView xWindow="-55460" yWindow="5520" windowWidth="49780" windowHeight="23280" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
   </bookViews>
   <sheets>
     <sheet name="County Dashboard" sheetId="1" r:id="rId1"/>
@@ -471,11 +471,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DE25F0-E558-784A-AF10-BC9084C29ADA}">
-  <dimension ref="A1:FS17"/>
+  <dimension ref="A1:GC17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="FA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="FI1" sqref="FI1:FS1"/>
+      <pane xSplit="1" topLeftCell="FC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="GA19" sqref="GA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -484,7 +484,7 @@
     <col min="2" max="17" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:175" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1010,8 +1010,38 @@
       <c r="FS1" s="1">
         <v>44248</v>
       </c>
+      <c r="FT1" s="1">
+        <v>44249</v>
+      </c>
+      <c r="FU1" s="1">
+        <v>44250</v>
+      </c>
+      <c r="FV1" s="1">
+        <v>44251</v>
+      </c>
+      <c r="FW1" s="1">
+        <v>44252</v>
+      </c>
+      <c r="FX1" s="1">
+        <v>44253</v>
+      </c>
+      <c r="FY1" s="1">
+        <v>44254</v>
+      </c>
+      <c r="FZ1" s="1">
+        <v>44255</v>
+      </c>
+      <c r="GA1" s="1">
+        <v>44256</v>
+      </c>
+      <c r="GB1" s="1">
+        <v>44257</v>
+      </c>
+      <c r="GC1" s="1">
+        <v>44258</v>
+      </c>
     </row>
-    <row r="2" spans="1:175" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1537,8 +1567,38 @@
       <c r="FS2">
         <v>0</v>
       </c>
+      <c r="FT2">
+        <v>-1</v>
+      </c>
+      <c r="FU2">
+        <v>8</v>
+      </c>
+      <c r="FV2">
+        <v>1</v>
+      </c>
+      <c r="FW2">
+        <v>6</v>
+      </c>
+      <c r="FX2">
+        <v>1</v>
+      </c>
+      <c r="FY2">
+        <v>3</v>
+      </c>
+      <c r="FZ2">
+        <v>5</v>
+      </c>
+      <c r="GA2">
+        <v>5</v>
+      </c>
+      <c r="GB2">
+        <v>11</v>
+      </c>
+      <c r="GC2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:175" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2065,8 +2125,38 @@
       <c r="FS3">
         <v>0</v>
       </c>
+      <c r="FT3">
+        <v>642</v>
+      </c>
+      <c r="FU3">
+        <v>45</v>
+      </c>
+      <c r="FV3">
+        <v>126</v>
+      </c>
+      <c r="FW3">
+        <v>200</v>
+      </c>
+      <c r="FX3">
+        <v>-43</v>
+      </c>
+      <c r="FY3">
+        <v>117</v>
+      </c>
+      <c r="FZ3">
+        <v>0</v>
+      </c>
+      <c r="GA3">
+        <v>49</v>
+      </c>
+      <c r="GB3">
+        <v>66</v>
+      </c>
+      <c r="GC3">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:175" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2592,8 +2682,38 @@
       <c r="FS4">
         <v>0</v>
       </c>
+      <c r="FT4">
+        <v>29</v>
+      </c>
+      <c r="FU4">
+        <v>29</v>
+      </c>
+      <c r="FV4">
+        <v>46</v>
+      </c>
+      <c r="FW4">
+        <v>18</v>
+      </c>
+      <c r="FX4">
+        <v>0</v>
+      </c>
+      <c r="FY4">
+        <v>0</v>
+      </c>
+      <c r="FZ4">
+        <v>0</v>
+      </c>
+      <c r="GA4">
+        <v>12</v>
+      </c>
+      <c r="GB4">
+        <v>26</v>
+      </c>
+      <c r="GC4">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:175" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3119,8 +3239,38 @@
       <c r="FS5">
         <v>0</v>
       </c>
+      <c r="FT5">
+        <v>576</v>
+      </c>
+      <c r="FU5">
+        <v>128</v>
+      </c>
+      <c r="FV5">
+        <v>83</v>
+      </c>
+      <c r="FW5">
+        <v>30</v>
+      </c>
+      <c r="FX5">
+        <v>230</v>
+      </c>
+      <c r="FY5">
+        <v>0</v>
+      </c>
+      <c r="FZ5">
+        <v>0</v>
+      </c>
+      <c r="GA5">
+        <v>149</v>
+      </c>
+      <c r="GB5">
+        <v>498</v>
+      </c>
+      <c r="GC5">
+        <v>152</v>
+      </c>
     </row>
-    <row r="6" spans="1:175" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3646,8 +3796,38 @@
       <c r="FS6">
         <v>0</v>
       </c>
+      <c r="FT6">
+        <v>0</v>
+      </c>
+      <c r="FU6">
+        <v>217</v>
+      </c>
+      <c r="FV6">
+        <v>130</v>
+      </c>
+      <c r="FW6">
+        <v>87</v>
+      </c>
+      <c r="FX6">
+        <v>91</v>
+      </c>
+      <c r="FY6">
+        <v>129</v>
+      </c>
+      <c r="FZ6">
+        <v>0</v>
+      </c>
+      <c r="GA6">
+        <v>141</v>
+      </c>
+      <c r="GB6">
+        <v>81</v>
+      </c>
+      <c r="GC6">
+        <v>78</v>
+      </c>
     </row>
-    <row r="7" spans="1:175" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4174,8 +4354,38 @@
       <c r="FS7">
         <v>1050</v>
       </c>
+      <c r="FT7">
+        <v>696</v>
+      </c>
+      <c r="FU7">
+        <v>396</v>
+      </c>
+      <c r="FV7">
+        <v>387</v>
+      </c>
+      <c r="FW7">
+        <v>596</v>
+      </c>
+      <c r="FX7">
+        <v>511</v>
+      </c>
+      <c r="FY7">
+        <v>624</v>
+      </c>
+      <c r="FZ7">
+        <v>163</v>
+      </c>
+      <c r="GA7">
+        <v>696</v>
+      </c>
+      <c r="GB7">
+        <v>1230</v>
+      </c>
+      <c r="GC7">
+        <v>620</v>
+      </c>
     </row>
-    <row r="8" spans="1:175" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4702,8 +4912,38 @@
       <c r="FS8">
         <v>4</v>
       </c>
+      <c r="FT8">
+        <v>63</v>
+      </c>
+      <c r="FU8">
+        <v>5</v>
+      </c>
+      <c r="FV8">
+        <v>14</v>
+      </c>
+      <c r="FW8">
+        <v>12</v>
+      </c>
+      <c r="FX8">
+        <v>20</v>
+      </c>
+      <c r="FY8">
+        <v>29</v>
+      </c>
+      <c r="FZ8">
+        <v>9</v>
+      </c>
+      <c r="GA8">
+        <v>11</v>
+      </c>
+      <c r="GB8">
+        <v>6</v>
+      </c>
+      <c r="GC8">
+        <v>11</v>
+      </c>
     </row>
-    <row r="9" spans="1:175" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5230,8 +5470,38 @@
       <c r="FS9">
         <v>0</v>
       </c>
+      <c r="FT9">
+        <v>174</v>
+      </c>
+      <c r="FU9">
+        <v>62</v>
+      </c>
+      <c r="FV9">
+        <v>39</v>
+      </c>
+      <c r="FW9">
+        <v>211</v>
+      </c>
+      <c r="FX9">
+        <v>45</v>
+      </c>
+      <c r="FY9">
+        <v>0</v>
+      </c>
+      <c r="FZ9">
+        <v>0</v>
+      </c>
+      <c r="GA9">
+        <v>413</v>
+      </c>
+      <c r="GB9">
+        <v>67</v>
+      </c>
+      <c r="GC9">
+        <v>131</v>
+      </c>
     </row>
-    <row r="10" spans="1:175" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5757,8 +6027,38 @@
       <c r="FS10">
         <v>4</v>
       </c>
+      <c r="FT10">
+        <v>5</v>
+      </c>
+      <c r="FU10">
+        <v>6</v>
+      </c>
+      <c r="FV10">
+        <v>7</v>
+      </c>
+      <c r="FW10">
+        <v>8</v>
+      </c>
+      <c r="FX10">
+        <v>6</v>
+      </c>
+      <c r="FY10">
+        <v>5</v>
+      </c>
+      <c r="FZ10">
+        <v>13</v>
+      </c>
+      <c r="GA10">
+        <v>11</v>
+      </c>
+      <c r="GB10">
+        <v>5</v>
+      </c>
+      <c r="GC10">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:175" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5915,7 +6215,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="13" spans="1:175" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -5923,7 +6223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:175" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:185" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>

--- a/TSHS_CaseCountData/DSHS New County Data.xlsx
+++ b/TSHS_CaseCountData/DSHS New County Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yipenggao/Dropbox/Amos_Lab/covid-19-county-R0/TSHS_CaseCountData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBF5D2A-680A-A648-99AD-988E8D48E88D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A0748D-4601-614A-86BE-61D87CDBA20D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-55460" yWindow="5520" windowWidth="49780" windowHeight="23280" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
+    <workbookView xWindow="-68040" yWindow="4020" windowWidth="67300" windowHeight="24240" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
   </bookViews>
   <sheets>
     <sheet name="County Dashboard" sheetId="1" r:id="rId1"/>
@@ -471,11 +471,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DE25F0-E558-784A-AF10-BC9084C29ADA}">
-  <dimension ref="A1:GC17"/>
+  <dimension ref="A1:GH17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
       <pane xSplit="1" topLeftCell="FC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="GA19" sqref="GA19"/>
+      <selection pane="topRight" activeCell="GD21" sqref="GD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -484,7 +484,7 @@
     <col min="2" max="17" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:185" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:190" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1040,8 +1040,23 @@
       <c r="GC1" s="1">
         <v>44258</v>
       </c>
+      <c r="GD1" s="1">
+        <v>44259</v>
+      </c>
+      <c r="GE1" s="1">
+        <v>44260</v>
+      </c>
+      <c r="GF1" s="1">
+        <v>44261</v>
+      </c>
+      <c r="GG1" s="1">
+        <v>44262</v>
+      </c>
+      <c r="GH1" s="1">
+        <v>44263</v>
+      </c>
     </row>
-    <row r="2" spans="1:185" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:190" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1597,8 +1612,23 @@
       <c r="GC2">
         <v>1</v>
       </c>
+      <c r="GD2">
+        <v>1</v>
+      </c>
+      <c r="GE2">
+        <v>10</v>
+      </c>
+      <c r="GF2">
+        <v>8</v>
+      </c>
+      <c r="GG2">
+        <v>8</v>
+      </c>
+      <c r="GH2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:185" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:190" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2155,8 +2185,23 @@
       <c r="GC3">
         <v>17</v>
       </c>
+      <c r="GD3">
+        <v>17</v>
+      </c>
+      <c r="GE3">
+        <v>167</v>
+      </c>
+      <c r="GF3">
+        <v>0</v>
+      </c>
+      <c r="GG3">
+        <v>124</v>
+      </c>
+      <c r="GH3">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:185" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:190" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2712,8 +2757,23 @@
       <c r="GC4">
         <v>18</v>
       </c>
+      <c r="GD4">
+        <v>18</v>
+      </c>
+      <c r="GE4">
+        <v>25</v>
+      </c>
+      <c r="GF4">
+        <v>0</v>
+      </c>
+      <c r="GG4">
+        <v>0</v>
+      </c>
+      <c r="GH4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:185" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:190" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3269,8 +3329,23 @@
       <c r="GC5">
         <v>152</v>
       </c>
+      <c r="GD5">
+        <v>152</v>
+      </c>
+      <c r="GE5">
+        <v>248</v>
+      </c>
+      <c r="GF5">
+        <v>292</v>
+      </c>
+      <c r="GG5">
+        <v>0</v>
+      </c>
+      <c r="GH5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:185" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:190" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3826,8 +3901,23 @@
       <c r="GC6">
         <v>78</v>
       </c>
+      <c r="GD6">
+        <v>78</v>
+      </c>
+      <c r="GE6">
+        <v>74</v>
+      </c>
+      <c r="GF6">
+        <v>113</v>
+      </c>
+      <c r="GG6">
+        <v>62</v>
+      </c>
+      <c r="GH6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:185" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:190" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4384,8 +4474,23 @@
       <c r="GC7">
         <v>620</v>
       </c>
+      <c r="GD7">
+        <v>620</v>
+      </c>
+      <c r="GE7">
+        <v>776</v>
+      </c>
+      <c r="GF7">
+        <v>612</v>
+      </c>
+      <c r="GG7">
+        <v>447</v>
+      </c>
+      <c r="GH7">
+        <v>236</v>
+      </c>
     </row>
-    <row r="8" spans="1:185" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:190" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4942,8 +5047,23 @@
       <c r="GC8">
         <v>11</v>
       </c>
+      <c r="GD8">
+        <v>11</v>
+      </c>
+      <c r="GE8">
+        <v>7</v>
+      </c>
+      <c r="GF8">
+        <v>7</v>
+      </c>
+      <c r="GG8">
+        <v>6</v>
+      </c>
+      <c r="GH8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="9" spans="1:185" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:190" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5500,8 +5620,23 @@
       <c r="GC9">
         <v>131</v>
       </c>
+      <c r="GD9">
+        <v>131</v>
+      </c>
+      <c r="GE9">
+        <v>50</v>
+      </c>
+      <c r="GF9">
+        <v>160</v>
+      </c>
+      <c r="GG9">
+        <v>0</v>
+      </c>
+      <c r="GH9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:185" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:190" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -6057,8 +6192,23 @@
       <c r="GC10">
         <v>7</v>
       </c>
+      <c r="GD10">
+        <v>7</v>
+      </c>
+      <c r="GE10">
+        <v>2</v>
+      </c>
+      <c r="GF10">
+        <v>8</v>
+      </c>
+      <c r="GG10">
+        <v>10</v>
+      </c>
+      <c r="GH10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:185" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:190" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -6215,7 +6365,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="13" spans="1:185" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:190" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -6223,7 +6373,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:185" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:190" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>

--- a/TSHS_CaseCountData/DSHS New County Data.xlsx
+++ b/TSHS_CaseCountData/DSHS New County Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yipenggao/Dropbox/Amos_Lab/covid-19-county-R0/TSHS_CaseCountData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A0748D-4601-614A-86BE-61D87CDBA20D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937EADF9-DDB1-2542-8573-2D303A419E35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-68040" yWindow="4020" windowWidth="67300" windowHeight="24240" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
   </bookViews>
@@ -471,11 +471,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DE25F0-E558-784A-AF10-BC9084C29ADA}">
-  <dimension ref="A1:GH17"/>
+  <dimension ref="A1:GO17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="FC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="GD21" sqref="GD21"/>
+      <pane xSplit="1" topLeftCell="FG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="GG19" sqref="GG19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -484,7 +484,7 @@
     <col min="2" max="17" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:190" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:197" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1055,8 +1055,29 @@
       <c r="GH1" s="1">
         <v>44263</v>
       </c>
+      <c r="GI1" s="1">
+        <v>44264</v>
+      </c>
+      <c r="GJ1" s="1">
+        <v>44265</v>
+      </c>
+      <c r="GK1" s="1">
+        <v>44266</v>
+      </c>
+      <c r="GL1" s="1">
+        <v>44267</v>
+      </c>
+      <c r="GM1" s="1">
+        <v>44268</v>
+      </c>
+      <c r="GN1" s="1">
+        <v>44269</v>
+      </c>
+      <c r="GO1" s="1">
+        <v>44270</v>
+      </c>
     </row>
-    <row r="2" spans="1:190" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:197" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1627,8 +1648,29 @@
       <c r="GH2">
         <v>0</v>
       </c>
+      <c r="GI2">
+        <v>8</v>
+      </c>
+      <c r="GJ2">
+        <v>3</v>
+      </c>
+      <c r="GK2">
+        <v>3</v>
+      </c>
+      <c r="GL2">
+        <v>5</v>
+      </c>
+      <c r="GM2">
+        <v>6</v>
+      </c>
+      <c r="GN2">
+        <v>6</v>
+      </c>
+      <c r="GO2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:190" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:197" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2200,8 +2242,29 @@
       <c r="GH3">
         <v>9</v>
       </c>
+      <c r="GI3">
+        <v>92</v>
+      </c>
+      <c r="GJ3">
+        <v>81</v>
+      </c>
+      <c r="GK3">
+        <v>65</v>
+      </c>
+      <c r="GL3">
+        <v>45</v>
+      </c>
+      <c r="GM3">
+        <v>90</v>
+      </c>
+      <c r="GN3">
+        <v>63</v>
+      </c>
+      <c r="GO3">
+        <v>50</v>
+      </c>
     </row>
-    <row r="4" spans="1:190" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:197" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2772,8 +2835,29 @@
       <c r="GH4">
         <v>0</v>
       </c>
+      <c r="GI4">
+        <v>19</v>
+      </c>
+      <c r="GJ4">
+        <v>48</v>
+      </c>
+      <c r="GK4">
+        <v>0</v>
+      </c>
+      <c r="GL4">
+        <v>18</v>
+      </c>
+      <c r="GM4">
+        <v>0</v>
+      </c>
+      <c r="GN4">
+        <v>0</v>
+      </c>
+      <c r="GO4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:190" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:197" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3344,8 +3428,29 @@
       <c r="GH5">
         <v>0</v>
       </c>
+      <c r="GI5">
+        <v>124</v>
+      </c>
+      <c r="GJ5">
+        <v>375</v>
+      </c>
+      <c r="GK5">
+        <v>574</v>
+      </c>
+      <c r="GL5">
+        <v>59</v>
+      </c>
+      <c r="GM5">
+        <v>147</v>
+      </c>
+      <c r="GN5">
+        <v>0</v>
+      </c>
+      <c r="GO5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:190" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:197" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3916,8 +4021,29 @@
       <c r="GH6">
         <v>0</v>
       </c>
+      <c r="GI6">
+        <v>96</v>
+      </c>
+      <c r="GJ6">
+        <v>107</v>
+      </c>
+      <c r="GK6">
+        <v>67</v>
+      </c>
+      <c r="GL6">
+        <v>70</v>
+      </c>
+      <c r="GM6">
+        <v>74</v>
+      </c>
+      <c r="GN6">
+        <v>82</v>
+      </c>
+      <c r="GO6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:190" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:197" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4489,8 +4615,29 @@
       <c r="GH7">
         <v>236</v>
       </c>
+      <c r="GI7">
+        <v>251</v>
+      </c>
+      <c r="GJ7">
+        <v>348</v>
+      </c>
+      <c r="GK7">
+        <v>122</v>
+      </c>
+      <c r="GL7">
+        <v>1530</v>
+      </c>
+      <c r="GM7">
+        <v>634</v>
+      </c>
+      <c r="GN7">
+        <v>800</v>
+      </c>
+      <c r="GO7">
+        <v>475</v>
+      </c>
     </row>
-    <row r="8" spans="1:190" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:197" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5062,8 +5209,29 @@
       <c r="GH8">
         <v>2</v>
       </c>
+      <c r="GI8">
+        <v>14</v>
+      </c>
+      <c r="GJ8">
+        <v>12</v>
+      </c>
+      <c r="GK8">
+        <v>2</v>
+      </c>
+      <c r="GL8">
+        <v>17</v>
+      </c>
+      <c r="GM8">
+        <v>15</v>
+      </c>
+      <c r="GN8">
+        <v>7</v>
+      </c>
+      <c r="GO8">
+        <v>12</v>
+      </c>
     </row>
-    <row r="9" spans="1:190" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:197" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5635,8 +5803,29 @@
       <c r="GH9">
         <v>0</v>
       </c>
+      <c r="GI9">
+        <v>174</v>
+      </c>
+      <c r="GJ9">
+        <v>65</v>
+      </c>
+      <c r="GK9">
+        <v>33</v>
+      </c>
+      <c r="GL9">
+        <v>126</v>
+      </c>
+      <c r="GM9">
+        <v>98</v>
+      </c>
+      <c r="GN9">
+        <v>0</v>
+      </c>
+      <c r="GO9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:190" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:197" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -6207,8 +6396,29 @@
       <c r="GH10">
         <v>0</v>
       </c>
+      <c r="GI10">
+        <v>10</v>
+      </c>
+      <c r="GJ10">
+        <v>7</v>
+      </c>
+      <c r="GK10">
+        <v>15</v>
+      </c>
+      <c r="GL10">
+        <v>8</v>
+      </c>
+      <c r="GM10">
+        <v>11</v>
+      </c>
+      <c r="GN10">
+        <v>8</v>
+      </c>
+      <c r="GO10">
+        <v>12</v>
+      </c>
     </row>
-    <row r="11" spans="1:190" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:197" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -6365,7 +6575,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="13" spans="1:190" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:197" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -6373,7 +6583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:190" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:197" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>

--- a/TSHS_CaseCountData/DSHS New County Data.xlsx
+++ b/TSHS_CaseCountData/DSHS New County Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yipenggao/Dropbox/Amos_Lab/covid-19-county-R0/TSHS_CaseCountData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937EADF9-DDB1-2542-8573-2D303A419E35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEE8D9B-211A-FD4F-ABF3-31271BDDB920}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-68040" yWindow="4020" windowWidth="67300" windowHeight="24240" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="68800" windowHeight="26740" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
   </bookViews>
   <sheets>
     <sheet name="County Dashboard" sheetId="1" r:id="rId1"/>
@@ -471,11 +471,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DE25F0-E558-784A-AF10-BC9084C29ADA}">
-  <dimension ref="A1:GO17"/>
+  <dimension ref="A1:GV17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="FG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="GG19" sqref="GG19"/>
+      <pane xSplit="1" topLeftCell="FJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="GU16" sqref="GU16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -484,7 +484,7 @@
     <col min="2" max="17" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:197" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:204" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1076,8 +1076,29 @@
       <c r="GO1" s="1">
         <v>44270</v>
       </c>
+      <c r="GP1" s="1">
+        <v>44271</v>
+      </c>
+      <c r="GQ1" s="1">
+        <v>44272</v>
+      </c>
+      <c r="GR1" s="1">
+        <v>44273</v>
+      </c>
+      <c r="GS1" s="1">
+        <v>44274</v>
+      </c>
+      <c r="GT1" s="1">
+        <v>44275</v>
+      </c>
+      <c r="GU1" s="1">
+        <v>44276</v>
+      </c>
+      <c r="GV1" s="1">
+        <v>44277</v>
+      </c>
     </row>
-    <row r="2" spans="1:197" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:204" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1669,8 +1690,29 @@
       <c r="GO2">
         <v>1</v>
       </c>
+      <c r="GP2" s="4">
+        <v>3</v>
+      </c>
+      <c r="GQ2" s="4">
+        <v>3</v>
+      </c>
+      <c r="GR2" s="4">
+        <v>1</v>
+      </c>
+      <c r="GS2" s="4">
+        <v>3</v>
+      </c>
+      <c r="GT2" s="4">
+        <v>3</v>
+      </c>
+      <c r="GU2" s="4">
+        <v>11</v>
+      </c>
+      <c r="GV2" s="4">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:197" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:204" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2263,8 +2305,29 @@
       <c r="GO3">
         <v>50</v>
       </c>
+      <c r="GP3" s="4">
+        <v>36</v>
+      </c>
+      <c r="GQ3" s="4">
+        <v>66</v>
+      </c>
+      <c r="GR3" s="4">
+        <v>58</v>
+      </c>
+      <c r="GS3" s="4">
+        <v>37</v>
+      </c>
+      <c r="GT3" s="4">
+        <v>-1</v>
+      </c>
+      <c r="GU3" s="4">
+        <v>87</v>
+      </c>
+      <c r="GV3" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:197" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:204" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2856,8 +2919,29 @@
       <c r="GO4">
         <v>0</v>
       </c>
+      <c r="GP4" s="4">
+        <v>0</v>
+      </c>
+      <c r="GQ4" s="4">
+        <v>40</v>
+      </c>
+      <c r="GR4" s="4">
+        <v>47</v>
+      </c>
+      <c r="GS4" s="4">
+        <v>0</v>
+      </c>
+      <c r="GT4" s="4">
+        <v>21</v>
+      </c>
+      <c r="GU4" s="4">
+        <v>0</v>
+      </c>
+      <c r="GV4" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:197" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:204" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3449,8 +3533,29 @@
       <c r="GO5">
         <v>0</v>
       </c>
+      <c r="GP5" s="4">
+        <v>126</v>
+      </c>
+      <c r="GQ5" s="4">
+        <v>238</v>
+      </c>
+      <c r="GR5" s="4">
+        <v>110</v>
+      </c>
+      <c r="GS5" s="4">
+        <v>100</v>
+      </c>
+      <c r="GT5" s="4">
+        <v>291</v>
+      </c>
+      <c r="GU5" s="4">
+        <v>0</v>
+      </c>
+      <c r="GV5" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:197" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:204" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4042,8 +4147,29 @@
       <c r="GO6">
         <v>0</v>
       </c>
+      <c r="GP6" s="4">
+        <v>103</v>
+      </c>
+      <c r="GQ6" s="4">
+        <v>69</v>
+      </c>
+      <c r="GR6" s="4">
+        <v>35</v>
+      </c>
+      <c r="GS6" s="4">
+        <v>45</v>
+      </c>
+      <c r="GT6" s="4">
+        <v>50</v>
+      </c>
+      <c r="GU6" s="4">
+        <v>71</v>
+      </c>
+      <c r="GV6" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:197" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:204" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4636,8 +4762,29 @@
       <c r="GO7">
         <v>475</v>
       </c>
+      <c r="GP7" s="4">
+        <v>84</v>
+      </c>
+      <c r="GQ7" s="4">
+        <v>561</v>
+      </c>
+      <c r="GR7" s="4">
+        <v>1122</v>
+      </c>
+      <c r="GS7" s="4">
+        <v>542</v>
+      </c>
+      <c r="GT7" s="4">
+        <v>502</v>
+      </c>
+      <c r="GU7" s="4">
+        <v>552</v>
+      </c>
+      <c r="GV7" s="4">
+        <v>661</v>
+      </c>
     </row>
-    <row r="8" spans="1:197" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:204" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5230,8 +5377,29 @@
       <c r="GO8">
         <v>12</v>
       </c>
+      <c r="GP8" s="4">
+        <v>-5</v>
+      </c>
+      <c r="GQ8" s="4">
+        <v>5</v>
+      </c>
+      <c r="GR8" s="4">
+        <v>1</v>
+      </c>
+      <c r="GS8" s="4">
+        <v>1</v>
+      </c>
+      <c r="GT8" s="4">
+        <v>-3</v>
+      </c>
+      <c r="GU8" s="4">
+        <v>22</v>
+      </c>
+      <c r="GV8" s="4">
+        <v>9</v>
+      </c>
     </row>
-    <row r="9" spans="1:197" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:204" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5824,8 +5992,29 @@
       <c r="GO9">
         <v>0</v>
       </c>
+      <c r="GP9" s="4">
+        <v>622</v>
+      </c>
+      <c r="GQ9" s="4">
+        <v>73</v>
+      </c>
+      <c r="GR9" s="4">
+        <v>28</v>
+      </c>
+      <c r="GS9" s="4">
+        <v>107</v>
+      </c>
+      <c r="GT9" s="4">
+        <v>127</v>
+      </c>
+      <c r="GU9" s="4">
+        <v>0</v>
+      </c>
+      <c r="GV9" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:197" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:204" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -6417,8 +6606,29 @@
       <c r="GO10">
         <v>12</v>
       </c>
+      <c r="GP10" s="4">
+        <v>9</v>
+      </c>
+      <c r="GQ10" s="4">
+        <v>8</v>
+      </c>
+      <c r="GR10" s="4">
+        <v>2</v>
+      </c>
+      <c r="GS10" s="4">
+        <v>13</v>
+      </c>
+      <c r="GT10" s="4">
+        <v>0</v>
+      </c>
+      <c r="GU10" s="4">
+        <v>17</v>
+      </c>
+      <c r="GV10" s="4">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:197" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:204" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -6575,7 +6785,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="13" spans="1:197" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:204" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -6583,7 +6793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:197" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:204" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>

--- a/TSHS_CaseCountData/DSHS New County Data.xlsx
+++ b/TSHS_CaseCountData/DSHS New County Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yipenggao/Dropbox/Amos_Lab/covid-19-county-R0/TSHS_CaseCountData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEE8D9B-211A-FD4F-ABF3-31271BDDB920}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5568D817-9B18-C342-ABC4-25341CC5A261}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="68800" windowHeight="26740" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
+    <workbookView xWindow="11560" yWindow="7700" windowWidth="78660" windowHeight="26740" xr2:uid="{4115834A-9ED9-9242-9AE9-773FEFDCF8F9}"/>
   </bookViews>
   <sheets>
     <sheet name="County Dashboard" sheetId="1" r:id="rId1"/>
@@ -471,11 +471,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DE25F0-E558-784A-AF10-BC9084C29ADA}">
-  <dimension ref="A1:GV17"/>
+  <dimension ref="A1:HM17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="FJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="GU16" sqref="GU16"/>
+      <pane xSplit="1" topLeftCell="GC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="HL17" sqref="HL17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -484,7 +484,7 @@
     <col min="2" max="17" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:204" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:221" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1097,8 +1097,59 @@
       <c r="GV1" s="1">
         <v>44277</v>
       </c>
+      <c r="GW1" s="1">
+        <v>44278</v>
+      </c>
+      <c r="GX1" s="1">
+        <v>44279</v>
+      </c>
+      <c r="GY1" s="1">
+        <v>44280</v>
+      </c>
+      <c r="GZ1" s="1">
+        <v>44281</v>
+      </c>
+      <c r="HA1" s="1">
+        <v>44282</v>
+      </c>
+      <c r="HB1" s="1">
+        <v>44283</v>
+      </c>
+      <c r="HC1" s="1">
+        <v>44284</v>
+      </c>
+      <c r="HD1" s="1">
+        <v>44285</v>
+      </c>
+      <c r="HE1" s="1">
+        <v>44286</v>
+      </c>
+      <c r="HF1" s="1">
+        <v>44287</v>
+      </c>
+      <c r="HG1" s="1">
+        <v>44288</v>
+      </c>
+      <c r="HH1" s="1">
+        <v>44289</v>
+      </c>
+      <c r="HI1" s="1">
+        <v>44290</v>
+      </c>
+      <c r="HJ1" s="1">
+        <v>44291</v>
+      </c>
+      <c r="HK1" s="1">
+        <v>44292</v>
+      </c>
+      <c r="HL1" s="1">
+        <v>44293</v>
+      </c>
+      <c r="HM1" s="1">
+        <v>44294</v>
+      </c>
     </row>
-    <row r="2" spans="1:204" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:221" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1711,8 +1762,59 @@
       <c r="GV2" s="4">
         <v>4</v>
       </c>
+      <c r="GW2" s="4">
+        <v>5</v>
+      </c>
+      <c r="GX2" s="4">
+        <v>5</v>
+      </c>
+      <c r="GY2" s="4">
+        <v>-1</v>
+      </c>
+      <c r="GZ2" s="4">
+        <v>5</v>
+      </c>
+      <c r="HA2" s="4">
+        <v>8</v>
+      </c>
+      <c r="HB2" s="4">
+        <v>2</v>
+      </c>
+      <c r="HC2" s="4">
+        <v>8</v>
+      </c>
+      <c r="HD2" s="4">
+        <v>8</v>
+      </c>
+      <c r="HE2" s="4">
+        <v>10</v>
+      </c>
+      <c r="HF2" s="4">
+        <v>0</v>
+      </c>
+      <c r="HG2" s="4">
+        <v>1</v>
+      </c>
+      <c r="HH2" s="4">
+        <v>3</v>
+      </c>
+      <c r="HI2" s="4">
+        <v>2</v>
+      </c>
+      <c r="HJ2" s="4">
+        <v>3</v>
+      </c>
+      <c r="HK2" s="4">
+        <v>1</v>
+      </c>
+      <c r="HL2" s="4">
+        <v>5</v>
+      </c>
+      <c r="HM2" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:204" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:221" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2326,8 +2428,59 @@
       <c r="GV3" s="4">
         <v>0</v>
       </c>
+      <c r="GW3" s="4">
+        <v>126</v>
+      </c>
+      <c r="GX3" s="4">
+        <v>44</v>
+      </c>
+      <c r="GY3" s="4">
+        <v>38</v>
+      </c>
+      <c r="GZ3" s="4">
+        <v>83</v>
+      </c>
+      <c r="HA3" s="4">
+        <v>53</v>
+      </c>
+      <c r="HB3" s="4">
+        <v>24</v>
+      </c>
+      <c r="HC3" s="4">
+        <v>67</v>
+      </c>
+      <c r="HD3" s="4">
+        <v>35</v>
+      </c>
+      <c r="HE3" s="4">
+        <v>24</v>
+      </c>
+      <c r="HF3" s="4">
+        <v>74</v>
+      </c>
+      <c r="HG3" s="4">
+        <v>-25</v>
+      </c>
+      <c r="HH3" s="4">
+        <v>1</v>
+      </c>
+      <c r="HI3" s="4">
+        <v>132</v>
+      </c>
+      <c r="HJ3" s="4">
+        <v>0</v>
+      </c>
+      <c r="HK3" s="4">
+        <v>-12</v>
+      </c>
+      <c r="HL3" s="4">
+        <v>133</v>
+      </c>
+      <c r="HM3" s="4">
+        <v>34</v>
+      </c>
     </row>
-    <row r="4" spans="1:204" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:221" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2940,8 +3093,59 @@
       <c r="GV4" s="4">
         <v>0</v>
       </c>
+      <c r="GW4" s="4">
+        <v>0</v>
+      </c>
+      <c r="GX4" s="4">
+        <v>35</v>
+      </c>
+      <c r="GY4" s="4">
+        <v>8</v>
+      </c>
+      <c r="GZ4" s="4">
+        <v>14</v>
+      </c>
+      <c r="HA4" s="4">
+        <v>23</v>
+      </c>
+      <c r="HB4" s="4">
+        <v>0</v>
+      </c>
+      <c r="HC4" s="4">
+        <v>0</v>
+      </c>
+      <c r="HD4" s="4">
+        <v>0</v>
+      </c>
+      <c r="HE4" s="4">
+        <v>0</v>
+      </c>
+      <c r="HF4" s="4">
+        <v>37</v>
+      </c>
+      <c r="HG4" s="4">
+        <v>0</v>
+      </c>
+      <c r="HH4" s="4">
+        <v>0</v>
+      </c>
+      <c r="HI4" s="4">
+        <v>0</v>
+      </c>
+      <c r="HJ4" s="4">
+        <v>0</v>
+      </c>
+      <c r="HK4" s="4">
+        <v>15</v>
+      </c>
+      <c r="HL4" s="4">
+        <v>51</v>
+      </c>
+      <c r="HM4" s="4">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="1:204" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:221" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3554,8 +3758,59 @@
       <c r="GV5" s="4">
         <v>0</v>
       </c>
+      <c r="GW5" s="4">
+        <v>65</v>
+      </c>
+      <c r="GX5" s="4">
+        <v>294</v>
+      </c>
+      <c r="GY5" s="4">
+        <v>97</v>
+      </c>
+      <c r="GZ5" s="4">
+        <v>88</v>
+      </c>
+      <c r="HA5" s="4">
+        <v>117</v>
+      </c>
+      <c r="HB5" s="4">
+        <v>0</v>
+      </c>
+      <c r="HC5" s="4">
+        <v>0</v>
+      </c>
+      <c r="HD5" s="4">
+        <v>87</v>
+      </c>
+      <c r="HE5" s="4">
+        <v>231</v>
+      </c>
+      <c r="HF5" s="4">
+        <v>55</v>
+      </c>
+      <c r="HG5" s="4">
+        <v>86</v>
+      </c>
+      <c r="HH5" s="4">
+        <v>0</v>
+      </c>
+      <c r="HI5" s="4">
+        <v>0</v>
+      </c>
+      <c r="HJ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="HK5" s="4">
+        <v>162</v>
+      </c>
+      <c r="HL5" s="4">
+        <v>283</v>
+      </c>
+      <c r="HM5" s="4">
+        <v>87</v>
+      </c>
     </row>
-    <row r="6" spans="1:204" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:221" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4168,8 +4423,59 @@
       <c r="GV6" s="4">
         <v>0</v>
       </c>
+      <c r="GW6" s="4">
+        <v>80</v>
+      </c>
+      <c r="GX6" s="4">
+        <v>26</v>
+      </c>
+      <c r="GY6" s="4">
+        <v>71</v>
+      </c>
+      <c r="GZ6" s="4">
+        <v>55</v>
+      </c>
+      <c r="HA6" s="4">
+        <v>62</v>
+      </c>
+      <c r="HB6" s="4">
+        <v>50</v>
+      </c>
+      <c r="HC6" s="4">
+        <v>0</v>
+      </c>
+      <c r="HD6" s="4">
+        <v>104</v>
+      </c>
+      <c r="HE6" s="4">
+        <v>40</v>
+      </c>
+      <c r="HF6" s="4">
+        <v>44</v>
+      </c>
+      <c r="HG6" s="4">
+        <v>58</v>
+      </c>
+      <c r="HH6" s="4">
+        <v>0</v>
+      </c>
+      <c r="HI6" s="4">
+        <v>85</v>
+      </c>
+      <c r="HJ6" s="4">
+        <v>0</v>
+      </c>
+      <c r="HK6" s="4">
+        <v>66</v>
+      </c>
+      <c r="HL6" s="4">
+        <v>45</v>
+      </c>
+      <c r="HM6" s="4">
+        <v>55</v>
+      </c>
     </row>
-    <row r="7" spans="1:204" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:221" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4783,8 +5089,59 @@
       <c r="GV7" s="4">
         <v>661</v>
       </c>
+      <c r="GW7" s="4">
+        <v>376</v>
+      </c>
+      <c r="GX7" s="4">
+        <v>728</v>
+      </c>
+      <c r="GY7" s="4">
+        <v>294</v>
+      </c>
+      <c r="GZ7" s="4">
+        <v>299</v>
+      </c>
+      <c r="HA7" s="4">
+        <v>560</v>
+      </c>
+      <c r="HB7" s="4">
+        <v>1143</v>
+      </c>
+      <c r="HC7" s="4">
+        <v>901</v>
+      </c>
+      <c r="HD7" s="4">
+        <v>531</v>
+      </c>
+      <c r="HE7" s="4">
+        <v>1024</v>
+      </c>
+      <c r="HF7" s="4">
+        <v>667</v>
+      </c>
+      <c r="HG7" s="4">
+        <v>520</v>
+      </c>
+      <c r="HH7" s="4">
+        <v>345</v>
+      </c>
+      <c r="HI7" s="4">
+        <v>787</v>
+      </c>
+      <c r="HJ7" s="4">
+        <v>511</v>
+      </c>
+      <c r="HK7" s="4">
+        <v>199</v>
+      </c>
+      <c r="HL7" s="4">
+        <v>552</v>
+      </c>
+      <c r="HM7" s="4">
+        <v>242</v>
+      </c>
     </row>
-    <row r="8" spans="1:204" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:221" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5398,8 +5755,59 @@
       <c r="GV8" s="4">
         <v>9</v>
       </c>
+      <c r="GW8" s="4">
+        <v>2</v>
+      </c>
+      <c r="GX8" s="4">
+        <v>8</v>
+      </c>
+      <c r="GY8" s="4">
+        <v>0</v>
+      </c>
+      <c r="GZ8" s="4">
+        <v>10</v>
+      </c>
+      <c r="HA8" s="4">
+        <v>5</v>
+      </c>
+      <c r="HB8" s="4">
+        <v>2</v>
+      </c>
+      <c r="HC8" s="4">
+        <v>7</v>
+      </c>
+      <c r="HD8" s="4">
+        <v>12</v>
+      </c>
+      <c r="HE8" s="4">
+        <v>0</v>
+      </c>
+      <c r="HF8" s="4">
+        <v>-2</v>
+      </c>
+      <c r="HG8" s="4">
+        <v>7</v>
+      </c>
+      <c r="HH8" s="4">
+        <v>12</v>
+      </c>
+      <c r="HI8" s="4">
+        <v>3</v>
+      </c>
+      <c r="HJ8" s="4">
+        <v>7</v>
+      </c>
+      <c r="HK8" s="4">
+        <v>6</v>
+      </c>
+      <c r="HL8" s="4">
+        <v>8</v>
+      </c>
+      <c r="HM8" s="4">
+        <v>4</v>
+      </c>
     </row>
-    <row r="9" spans="1:204" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:221" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -6013,8 +6421,59 @@
       <c r="GV9" s="4">
         <v>0</v>
       </c>
+      <c r="GW9" s="4">
+        <v>190</v>
+      </c>
+      <c r="GX9" s="4">
+        <v>48</v>
+      </c>
+      <c r="GY9" s="4">
+        <v>154</v>
+      </c>
+      <c r="GZ9" s="4">
+        <v>87</v>
+      </c>
+      <c r="HA9" s="4">
+        <v>44</v>
+      </c>
+      <c r="HB9" s="4">
+        <v>0</v>
+      </c>
+      <c r="HC9" s="4">
+        <v>0</v>
+      </c>
+      <c r="HD9" s="4">
+        <v>227</v>
+      </c>
+      <c r="HE9" s="4">
+        <v>86</v>
+      </c>
+      <c r="HF9" s="4">
+        <v>72</v>
+      </c>
+      <c r="HG9" s="4">
+        <v>80</v>
+      </c>
+      <c r="HH9" s="4">
+        <v>0</v>
+      </c>
+      <c r="HI9" s="4">
+        <v>0</v>
+      </c>
+      <c r="HJ9" s="4">
+        <v>0</v>
+      </c>
+      <c r="HK9" s="4">
+        <v>188</v>
+      </c>
+      <c r="HL9" s="4">
+        <v>49</v>
+      </c>
+      <c r="HM9" s="4">
+        <v>102</v>
+      </c>
     </row>
-    <row r="10" spans="1:204" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:221" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -6627,8 +7086,59 @@
       <c r="GV10" s="4">
         <v>7</v>
       </c>
+      <c r="GW10" s="4">
+        <v>10</v>
+      </c>
+      <c r="GX10" s="4">
+        <v>6</v>
+      </c>
+      <c r="GY10" s="4">
+        <v>1</v>
+      </c>
+      <c r="GZ10" s="4">
+        <v>6</v>
+      </c>
+      <c r="HA10" s="4">
+        <v>5</v>
+      </c>
+      <c r="HB10" s="4">
+        <v>4</v>
+      </c>
+      <c r="HC10" s="4">
+        <v>7</v>
+      </c>
+      <c r="HD10" s="4">
+        <v>2</v>
+      </c>
+      <c r="HE10" s="4">
+        <v>1</v>
+      </c>
+      <c r="HF10" s="4">
+        <v>1</v>
+      </c>
+      <c r="HG10" s="4">
+        <v>3</v>
+      </c>
+      <c r="HH10" s="4">
+        <v>10</v>
+      </c>
+      <c r="HI10" s="4">
+        <v>1</v>
+      </c>
+      <c r="HJ10" s="4">
+        <v>6</v>
+      </c>
+      <c r="HK10" s="4">
+        <v>5</v>
+      </c>
+      <c r="HL10" s="4">
+        <v>7</v>
+      </c>
+      <c r="HM10" s="4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="11" spans="1:204" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:221" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -6785,7 +7295,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="13" spans="1:204" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:221" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -6793,7 +7303,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:204" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:221" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
